--- a/EASE/EASE(D)-OneWay-Rattan.xlsx
+++ b/EASE/EASE(D)-OneWay-Rattan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\EASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D5BFFA-2D23-4782-B28F-3B24E1621840}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="114_{1005B5FA-B6D2-4F23-9301-9CFA46B43EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D32B6AD-038E-4B7C-9FB7-DD0F91051276}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="795" windowWidth="21645" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="31" r:id="rId1"/>
@@ -36,7 +36,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="144">
   <si>
     <t>Group</t>
   </si>
@@ -427,9 +429,6 @@
     <t>EASE: Estimation Approach to Statistics with Excel</t>
   </si>
   <si>
-    <t>Version: 2.20191030</t>
-  </si>
-  <si>
     <t>Data from Rattan (2012)</t>
   </si>
   <si>
@@ -466,19 +465,19 @@
     <t>Just Encouragement</t>
   </si>
   <si>
-    <t>Retreived from https://github.com/cwendorf/BASE/tree/master/EASE</t>
-  </si>
-  <si>
     <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
   </si>
   <si>
     <t>How to Cite</t>
   </si>
   <si>
-    <t>https://github.com/cwendorf/BASE/tree/master/EASE</t>
+    <t>cwendorf@uwsp.edu</t>
   </si>
   <si>
-    <t>cwendorf@uwsp.edu</t>
+    <t>Version: 2.20200104</t>
+  </si>
+  <si>
+    <t>https://cwendorf.github.io/BASE/EASE</t>
   </si>
 </sst>
 </file>
@@ -1439,11 +1438,15 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1473,10 +1476,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -9186,23 +9185,23 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="31"/>
-    <col min="9" max="10" width="4.5703125" style="31" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="31"/>
-    <col min="18" max="19" width="4.5703125" style="31" customWidth="1"/>
-    <col min="20" max="16384" width="11.140625" style="31"/>
+    <col min="1" max="1" width="4.578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="31"/>
+    <col min="9" max="10" width="4.578125" style="31" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="31"/>
+    <col min="18" max="19" width="4.578125" style="31" customWidth="1"/>
+    <col min="20" max="16384" width="11.15625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="149"/>
     </row>
-    <row r="2" spans="1:17" s="145" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="145" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="149"/>
       <c r="B2" s="199" t="s">
         <v>126</v>
@@ -9225,7 +9224,7 @@
       <c r="P2" s="200"/>
       <c r="Q2" s="200"/>
     </row>
-    <row r="3" spans="1:17" s="145" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="145" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="149"/>
       <c r="B3" s="201" t="s">
         <v>39</v>
@@ -9239,7 +9238,7 @@
       <c r="I3" s="198"/>
       <c r="J3" s="198"/>
       <c r="K3" s="201" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="L3" s="201"/>
       <c r="M3" s="201"/>
@@ -9248,7 +9247,7 @@
       <c r="P3" s="201"/>
       <c r="Q3" s="201"/>
     </row>
-    <row r="4" spans="1:17" s="155" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="155" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="154"/>
       <c r="B4" s="201" t="s">
         <v>38</v>
@@ -9271,7 +9270,7 @@
       <c r="P4" s="201"/>
       <c r="Q4" s="201"/>
     </row>
-    <row r="5" spans="1:17" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="149"/>
       <c r="I5" s="151"/>
       <c r="J5" s="151"/>
@@ -9283,7 +9282,7 @@
       <c r="P5" s="151"/>
       <c r="Q5" s="151"/>
     </row>
-    <row r="6" spans="1:17" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="149"/>
       <c r="B6" s="7" t="s">
         <v>90</v>
@@ -9292,7 +9291,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="31" t="s">
         <v>103</v>
       </c>
@@ -9300,7 +9299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="31" t="s">
         <v>106</v>
       </c>
@@ -9308,7 +9307,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="31" t="s">
         <v>112</v>
       </c>
@@ -9316,12 +9315,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="31" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B13" s="7" t="s">
         <v>92</v>
       </c>
@@ -9329,10 +9328,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="31" t="s">
         <v>9</v>
       </c>
@@ -9340,7 +9339,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="31"/>
       <c r="B16" s="31" t="s">
         <v>108</v>
@@ -9349,7 +9348,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="31"/>
       <c r="B17" s="31" t="s">
         <v>104</v>
@@ -9358,7 +9357,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="31"/>
       <c r="B18" s="31" t="s">
         <v>105</v>
@@ -9367,7 +9366,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="31"/>
       <c r="B20" s="7" t="s">
         <v>95</v>
@@ -9376,7 +9375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="31"/>
       <c r="B22" s="28" t="s">
         <v>96</v>
@@ -9393,7 +9392,7 @@
       <c r="O22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="31"/>
       <c r="B23" s="28" t="s">
         <v>97</v>
@@ -9410,7 +9409,7 @@
       <c r="O23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="31"/>
       <c r="B24" s="28" t="s">
         <v>101</v>
@@ -9427,7 +9426,7 @@
       <c r="O24"/>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="31"/>
       <c r="B25" s="31" t="s">
         <v>125</v>
@@ -9436,7 +9435,7 @@
         <v>111</v>
       </c>
       <c r="K25" s="197" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -9444,7 +9443,7 @@
       <c r="O25"/>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="31"/>
       <c r="B26" s="28" t="s">
         <v>102</v>
@@ -9461,7 +9460,7 @@
       <c r="O26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="31"/>
       <c r="L27"/>
       <c r="M27"/>
@@ -9470,13 +9469,13 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="31"/>
       <c r="B28" s="7" t="s">
         <v>124</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9485,7 +9484,7 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="31"/>
       <c r="B29" s="30"/>
       <c r="L29"/>
@@ -9495,7 +9494,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="31"/>
       <c r="B30" s="30" t="s">
         <v>98</v>
@@ -9510,13 +9509,13 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="31"/>
       <c r="B31" s="30" t="s">
         <v>99</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9525,13 +9524,13 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="31"/>
       <c r="B32" s="30" t="s">
         <v>100</v>
       </c>
       <c r="K32" s="31" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9540,7 +9539,7 @@
       <c r="P32"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="31"/>
       <c r="L33"/>
       <c r="M33"/>
@@ -9581,56 +9580,56 @@
       <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="11.140625" style="5"/>
-    <col min="6" max="6" width="11.140625" style="44"/>
-    <col min="7" max="8" width="11.140625" style="5"/>
-    <col min="9" max="10" width="4.5703125" style="5" customWidth="1"/>
-    <col min="11" max="13" width="18.5703125" style="21" customWidth="1"/>
-    <col min="14" max="15" width="11.140625" style="5"/>
-    <col min="16" max="16" width="4.5703125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="18" max="24" width="11.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.140625" style="5"/>
+    <col min="1" max="1" width="4.578125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="11.15625" style="5"/>
+    <col min="6" max="6" width="11.15625" style="44"/>
+    <col min="7" max="8" width="11.15625" style="5"/>
+    <col min="9" max="10" width="4.578125" style="5" customWidth="1"/>
+    <col min="11" max="13" width="18.578125" style="21" customWidth="1"/>
+    <col min="14" max="15" width="11.15625" style="5"/>
+    <col min="16" max="16" width="4.578125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="4.578125" style="5" hidden="1" customWidth="1"/>
+    <col min="18" max="24" width="11.15625" style="5" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="4.578125" style="5" hidden="1" customWidth="1"/>
+    <col min="26" max="16384" width="11.15625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="F1" s="5"/>
       <c r="K1" s="44"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="205" t="s">
+    <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="206" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="K2" s="205" t="s">
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="K2" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
       <c r="N2" s="148"/>
       <c r="O2" s="148"/>
-      <c r="R2" s="205" t="s">
+      <c r="R2" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="205"/>
-      <c r="T2" s="205"/>
-      <c r="U2" s="205"/>
-      <c r="V2" s="205"/>
-      <c r="W2" s="205"/>
-      <c r="X2" s="205"/>
-    </row>
-    <row r="3" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S2" s="206"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+    </row>
+    <row r="3" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E3" s="1"/>
       <c r="K3" s="44"/>
       <c r="L3" s="6"/>
@@ -9640,7 +9639,7 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B4" s="13" t="s">
         <v>33</v>
       </c>
@@ -9666,7 +9665,7 @@
       <c r="W4"/>
       <c r="X4"/>
     </row>
-    <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K5" s="20">
         <v>1</v>
       </c>
@@ -9685,16 +9684,16 @@
       <c r="W5" s="54"/>
       <c r="X5" s="54"/>
     </row>
-    <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="209" t="s">
+    <row r="6" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="210"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
       <c r="K6" s="21">
         <v>2</v>
       </c>
@@ -9727,16 +9726,16 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="212" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="213" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="213"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="213"/>
       <c r="K7" s="21">
         <v>3</v>
       </c>
@@ -9775,14 +9774,14 @@
         <v>0.45193845378886705</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
+    <row r="8" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="214"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="214"/>
       <c r="K8" s="21">
         <v>4</v>
       </c>
@@ -9821,7 +9820,7 @@
         <v>0.35125208566165256</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -9867,16 +9866,16 @@
         <v>0.32868410517886315</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="211" t="s">
+    <row r="10" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="211"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="212"/>
       <c r="K10" s="21">
         <v>6</v>
       </c>
@@ -9914,16 +9913,16 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="206" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="206"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="206"/>
+    <row r="11" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="207" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="207"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="207"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="207"/>
       <c r="K11" s="21">
         <v>7</v>
       </c>
@@ -9961,14 +9960,14 @@
         <v>0.24083479321734044</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="207"/>
-      <c r="C12" s="207"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="207"/>
-      <c r="F12" s="207"/>
-      <c r="G12" s="207"/>
-      <c r="H12" s="207"/>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="208"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="208"/>
+      <c r="E12" s="208"/>
+      <c r="F12" s="208"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="208"/>
       <c r="K12" s="21">
         <v>8</v>
       </c>
@@ -9987,14 +9986,14 @@
       <c r="W12" s="40"/>
       <c r="X12" s="40"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="207"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="207"/>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="208"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="208"/>
+      <c r="F13" s="208"/>
+      <c r="G13" s="208"/>
+      <c r="H13" s="208"/>
       <c r="K13" s="21">
         <v>9</v>
       </c>
@@ -10015,14 +10014,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
     </row>
-    <row r="14" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="208"/>
-      <c r="C14" s="208"/>
-      <c r="D14" s="208"/>
-      <c r="E14" s="208"/>
-      <c r="F14" s="208"/>
-      <c r="G14" s="208"/>
-      <c r="H14" s="208"/>
+    <row r="14" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="209"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="209"/>
+      <c r="H14" s="209"/>
       <c r="K14" s="21">
         <v>10</v>
       </c>
@@ -10041,7 +10040,7 @@
       <c r="W14" s="54"/>
       <c r="X14" s="54"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="K15" s="21">
         <v>11</v>
       </c>
@@ -10052,7 +10051,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="K16" s="21">
         <v>12</v>
       </c>
@@ -10063,7 +10062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="K17" s="21">
         <v>13</v>
       </c>
@@ -10074,7 +10073,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="K18" s="21">
         <v>14</v>
       </c>
@@ -10085,7 +10084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B19" s="13" t="s">
         <v>42</v>
       </c>
@@ -10113,7 +10112,7 @@
       <c r="W19" s="99"/>
       <c r="X19" s="109"/>
     </row>
-    <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
@@ -10139,17 +10138,17 @@
       <c r="W20" s="54"/>
       <c r="X20" s="54"/>
     </row>
-    <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="209" t="s">
+    <row r="21" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B21" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="209"/>
-      <c r="D21" s="210" t="s">
+      <c r="C21" s="210"/>
+      <c r="D21" s="211" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="211"/>
       <c r="H21" s="11" t="s">
         <v>28</v>
       </c>
@@ -10183,17 +10182,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="203" t="s">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="204" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="204"/>
+      <c r="D22" s="204" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="203"/>
-      <c r="D22" s="203" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="203"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
       <c r="H22" s="105">
         <v>1</v>
       </c>
@@ -10217,17 +10216,17 @@
       <c r="W22" s="110"/>
       <c r="X22" s="110"/>
     </row>
-    <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="204" t="s">
+    <row r="23" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="203" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="203"/>
+      <c r="D23" s="203" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="204"/>
-      <c r="D23" s="204" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="204"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="204"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="203"/>
       <c r="H23" s="106">
         <v>2</v>
       </c>
@@ -10251,7 +10250,7 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
     </row>
-    <row r="24" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -10279,7 +10278,7 @@
       </c>
       <c r="X24" s="111"/>
     </row>
-    <row r="25" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="98" t="str">
         <f>IF(B22="","",B22)</f>
         <v>Feedback</v>
@@ -10314,17 +10313,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="203" t="s">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="204" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="204"/>
+      <c r="D26" s="204" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
       <c r="H26" s="105">
         <v>1</v>
       </c>
@@ -10346,17 +10345,17 @@
       <c r="W26" s="40"/>
       <c r="X26" s="40"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="214" t="s">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="205"/>
+      <c r="D27" s="205" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="214"/>
-      <c r="D27" s="214" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="214"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
       <c r="H27" s="53">
         <v>2</v>
       </c>
@@ -10380,17 +10379,17 @@
       <c r="W27" s="54"/>
       <c r="X27" s="54"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="214" t="s">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="205" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="205"/>
+      <c r="D28" s="205" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="214"/>
-      <c r="D28" s="214" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="214"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="214"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="205"/>
       <c r="H28" s="53">
         <v>3</v>
       </c>
@@ -10412,13 +10411,13 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
     </row>
-    <row r="29" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="204"/>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
+    <row r="29" spans="2:24" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B29" s="203"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="203"/>
       <c r="H29" s="106"/>
       <c r="K29" s="21">
         <v>25</v>
@@ -10439,7 +10438,7 @@
       <c r="W29" s="58"/>
       <c r="X29" s="28"/>
     </row>
-    <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -10465,7 +10464,7 @@
       <c r="W30" s="58"/>
       <c r="X30" s="28"/>
     </row>
-    <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
       <c r="E31" s="47"/>
@@ -10502,7 +10501,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
       <c r="E32" s="47"/>
@@ -10545,7 +10544,7 @@
         <v>0.19875787981647935</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
       <c r="E33" s="47"/>
@@ -10579,7 +10578,7 @@
       <c r="W33" s="84"/>
       <c r="X33" s="85"/>
     </row>
-    <row r="34" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
       <c r="E34" s="47"/>
@@ -10613,7 +10612,7 @@
       <c r="W34" s="86"/>
       <c r="X34" s="88"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
       <c r="E35" s="47"/>
@@ -10636,7 +10635,7 @@
       <c r="W35" s="59"/>
       <c r="X35" s="59"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
       <c r="E36" s="47"/>
@@ -10651,7 +10650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
       <c r="E37" s="47"/>
@@ -10666,7 +10665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
       <c r="K38" s="21">
@@ -10679,7 +10678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
       <c r="K39" s="21">
@@ -10692,7 +10691,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
       <c r="K40" s="21">
@@ -10705,7 +10704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
       <c r="K41" s="21">
@@ -10718,7 +10717,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
       <c r="K42" s="21">
@@ -10731,7 +10730,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
       <c r="K43" s="21">
@@ -10744,7 +10743,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="K44" s="21">
         <v>40</v>
       </c>
@@ -10755,7 +10754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="K45" s="21">
         <v>41</v>
       </c>
@@ -10766,7 +10765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="K46" s="21">
         <v>42</v>
       </c>
@@ -10777,7 +10776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="K47" s="21">
         <v>43</v>
       </c>
@@ -10788,7 +10787,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="K48" s="21">
         <v>44</v>
       </c>
@@ -10799,7 +10798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:13" x14ac:dyDescent="0.55000000000000004">
       <c r="K49" s="21">
         <v>45</v>
       </c>
@@ -10810,7 +10809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:13" x14ac:dyDescent="0.55000000000000004">
       <c r="K50" s="21">
         <v>46</v>
       </c>
@@ -10821,7 +10820,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="51" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:13" x14ac:dyDescent="0.55000000000000004">
       <c r="K51" s="21">
         <v>47</v>
       </c>
@@ -10832,7 +10831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="11:13" x14ac:dyDescent="0.55000000000000004">
       <c r="K52" s="21">
         <v>48</v>
       </c>
@@ -10843,7 +10842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="11:13" x14ac:dyDescent="0.55000000000000004">
       <c r="K53" s="21">
         <v>49</v>
       </c>
@@ -10854,7 +10853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="11:13" x14ac:dyDescent="0.55000000000000004">
       <c r="K54" s="21">
         <v>50</v>
       </c>
@@ -10865,7 +10864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="11:13" x14ac:dyDescent="0.55000000000000004">
       <c r="K55" s="21">
         <v>51</v>
       </c>
@@ -10876,7 +10875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="11:13" x14ac:dyDescent="0.55000000000000004">
       <c r="K56" s="21">
         <v>52</v>
       </c>
@@ -10887,7 +10886,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="57" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="11:13" x14ac:dyDescent="0.55000000000000004">
       <c r="K57" s="21">
         <v>53</v>
       </c>
@@ -10898,7 +10897,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="58" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="11:13" x14ac:dyDescent="0.55000000000000004">
       <c r="K58" s="21">
         <v>54</v>
       </c>
@@ -10913,14 +10912,6 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:M4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -10934,6 +10925,14 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10951,26 +10950,26 @@
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="119" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="42"/>
-    <col min="9" max="9" width="4.5703125" style="42" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="119" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="42"/>
-    <col min="18" max="18" width="4.5703125" style="119" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="119" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="42"/>
+    <col min="9" max="9" width="4.578125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="4.578125" style="119" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="42"/>
+    <col min="18" max="18" width="4.578125" style="119" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="42" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="42" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="42" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="42"/>
+    <col min="27" max="27" width="4.578125" style="42" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="146"/>
       <c r="J1" s="146"/>
       <c r="R1" s="146"/>
     </row>
-    <row r="2" spans="1:26" s="147" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="147" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="146"/>
       <c r="B2" s="215" t="s">
         <v>43</v>
@@ -11003,7 +11002,7 @@
       <c r="Y2" s="215"/>
       <c r="Z2" s="215"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="118"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -11022,7 +11021,7 @@
       <c r="P3" s="28"/>
       <c r="Q3" s="28"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="7" t="s">
         <v>117</v>
       </c>
@@ -11051,7 +11050,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="118"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -11070,7 +11069,7 @@
       <c r="P5" s="28"/>
       <c r="Q5" s="28"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="118"/>
       <c r="B6" s="159" t="s">
         <v>0</v>
@@ -11112,7 +11111,7 @@
       </c>
       <c r="Q6" s="216"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="118"/>
       <c r="B7" s="161" t="str">
         <f>IF(Data!R7="","",Data!R7)</f>
@@ -11172,7 +11171,7 @@
         <v>0.13368691786943732</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="118"/>
       <c r="B8" s="85" t="str">
         <f>IF(Data!R8="","",Data!R8)</f>
@@ -11232,7 +11231,7 @@
         <v>1.425696241701548</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="118"/>
       <c r="B9" s="85" t="str">
         <f>IF(Data!R9="","",Data!R9)</f>
@@ -11292,7 +11291,7 @@
         <v>0.76906422089825144</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="118"/>
       <c r="B10" s="85" t="str">
         <f>IF(Data!R10="","",Data!R10)</f>
@@ -11352,7 +11351,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="118"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -11371,13 +11370,13 @@
       <c r="P11" s="59"/>
       <c r="Q11" s="59"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="118"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="118"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="8" t="s">
         <v>119</v>
       </c>
@@ -11401,7 +11400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="29"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -11420,7 +11419,7 @@
       <c r="P15" s="28"/>
       <c r="Q15" s="28"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="29"/>
       <c r="B16" s="142" t="s">
         <v>81</v>
@@ -11469,7 +11468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="29"/>
       <c r="B17" s="49" t="s">
         <v>0</v>
@@ -11538,7 +11537,7 @@
         <v>0.56718555708844898</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="29"/>
       <c r="B18" s="48">
         <v>1.1000000000000001</v>
@@ -11612,7 +11611,7 @@
         <v>5.8782961945816083</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="29"/>
       <c r="B19" s="48">
         <v>1.1000000000000001</v>
@@ -11686,7 +11685,7 @@
         <v>3.3522732199883194</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="29"/>
       <c r="B20" s="48">
         <v>1.1000000000000001</v>
@@ -11760,7 +11759,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="29"/>
       <c r="B21" s="48">
         <v>2.1</v>
@@ -11813,7 +11812,7 @@
       <c r="Y21" s="138"/>
       <c r="Z21" s="138"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="29"/>
       <c r="B22" s="48">
         <v>2.1</v>
@@ -11880,7 +11879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="29"/>
       <c r="B23" s="48">
         <v>2.1</v>
@@ -11954,7 +11953,7 @@
         <v>0.56593193702428835</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="29"/>
       <c r="B24" s="48">
         <v>3.1</v>
@@ -12028,7 +12027,7 @@
         <v>5.8782961945816083</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="29"/>
       <c r="B25" s="48">
         <v>3.1</v>
@@ -12102,7 +12101,7 @@
         <v>3.3522732199883194</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="29"/>
       <c r="B26" s="48">
         <v>3.1</v>
@@ -12176,7 +12175,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="29"/>
       <c r="B27" s="48">
         <v>4.0999999999999996</v>
@@ -12229,7 +12228,7 @@
       <c r="Y27" s="134"/>
       <c r="Z27" s="134"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="29"/>
       <c r="B28" s="49">
         <v>4.0999999999999996</v>
@@ -12290,7 +12289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="29"/>
       <c r="B29" s="49">
         <v>4.0999999999999996</v>
@@ -12356,7 +12355,7 @@
         <v>0.56718555708844898</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="29"/>
       <c r="B30" s="89"/>
       <c r="C30" s="89"/>
@@ -12395,7 +12394,7 @@
         <v>5.862686491645313</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="29"/>
       <c r="B31" s="89"/>
       <c r="C31" s="89"/>
@@ -12434,7 +12433,7 @@
         <v>3.3513854591937111</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="29"/>
       <c r="B32" s="89"/>
       <c r="C32" s="89"/>
@@ -12472,7 +12471,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="135"/>
       <c r="B33" s="89"/>
       <c r="C33" s="89"/>
@@ -12489,7 +12488,7 @@
       <c r="Y33" s="134"/>
       <c r="Z33" s="134"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="118"/>
       <c r="B34" s="89"/>
       <c r="C34" s="30"/>
@@ -12500,7 +12499,7 @@
       <c r="H34" s="30"/>
       <c r="I34" s="28"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="118"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -12510,7 +12509,7 @@
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="60" t="s">
         <v>118</v>
       </c>
@@ -12526,7 +12525,7 @@
       <c r="P37" s="118"/>
       <c r="Q37" s="118"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I38" s="28"/>
       <c r="J38" s="118"/>
       <c r="K38" s="118"/>
@@ -12537,7 +12536,7 @@
       <c r="P38" s="118"/>
       <c r="Q38" s="118"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="158" t="s">
         <v>0</v>
       </c>
@@ -12573,7 +12572,7 @@
       <c r="P39" s="118"/>
       <c r="Q39" s="118"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="161" t="str">
         <f>B7</f>
         <v>Reassure</v>
@@ -12619,7 +12618,7 @@
       <c r="U40" s="119"/>
       <c r="V40" s="119"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="85" t="str">
         <f>B8</f>
         <v>Challenge</v>
@@ -12665,7 +12664,7 @@
       <c r="U41" s="119"/>
       <c r="V41" s="119"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="85" t="str">
         <f>B9</f>
         <v>Encourage</v>
@@ -12711,7 +12710,7 @@
       <c r="U42" s="119"/>
       <c r="V42" s="119"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="162" t="str">
         <f>B10</f>
         <v/>
@@ -12753,7 +12752,7 @@
       <c r="U43" s="119"/>
       <c r="V43" s="119"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="134"/>
       <c r="C44" s="59"/>
       <c r="D44" s="134"/>
@@ -12797,25 +12796,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="54" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="54"/>
-    <col min="9" max="10" width="4.5703125" style="54" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="54"/>
-    <col min="18" max="18" width="4.5703125" style="54" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="54" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="54" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="54"/>
+    <col min="9" max="10" width="4.578125" style="54" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="54"/>
+    <col min="18" max="18" width="4.578125" style="54" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="54" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="54" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="54" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="54"/>
+    <col min="27" max="27" width="4.578125" style="54" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:26" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="2:26" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="215" t="s">
         <v>78</v>
       </c>
@@ -12844,7 +12843,7 @@
       <c r="Y2" s="215"/>
       <c r="Z2" s="215"/>
     </row>
-    <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="60" t="s">
         <v>117</v>
       </c>
@@ -12877,7 +12876,7 @@
       <c r="Y4" s="42"/>
       <c r="Z4" s="42"/>
     </row>
-    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -12895,7 +12894,7 @@
       <c r="Y5" s="42"/>
       <c r="Z5" s="42"/>
     </row>
-    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="158" t="s">
         <v>0</v>
       </c>
@@ -12945,7 +12944,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="105">
         <v>2</v>
       </c>
@@ -13011,7 +13010,7 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
     </row>
-    <row r="8" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="177">
         <v>1</v>
       </c>
@@ -13077,7 +13076,7 @@
       <c r="Y8" s="42"/>
       <c r="Z8" s="42"/>
     </row>
-    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="103"/>
       <c r="C9" s="103"/>
       <c r="D9" s="103"/>
@@ -13102,7 +13101,7 @@
       <c r="Y9" s="42"/>
       <c r="Z9" s="42"/>
     </row>
-    <row r="10" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="188" t="s">
         <v>116</v>
       </c>
@@ -13150,7 +13149,7 @@
       <c r="Y10" s="42"/>
       <c r="Z10" s="42"/>
     </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="168" t="s">
         <v>72</v>
       </c>
@@ -13213,7 +13212,7 @@
       <c r="Y11" s="42"/>
       <c r="Z11" s="42"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
@@ -13238,7 +13237,7 @@
       <c r="Y12" s="42"/>
       <c r="Z12" s="42"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="R13" s="119"/>
       <c r="S13" s="42"/>
       <c r="T13" s="42"/>
@@ -13249,7 +13248,7 @@
       <c r="Y13" s="42"/>
       <c r="Z13" s="42"/>
     </row>
-    <row r="14" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="60" t="s">
         <v>119</v>
       </c>
@@ -13279,7 +13278,7 @@
       <c r="Y14" s="42"/>
       <c r="Z14" s="42"/>
     </row>
-    <row r="15" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -13297,7 +13296,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="156" t="s">
         <v>81</v>
       </c>
@@ -13349,7 +13348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="43" t="s">
         <v>0</v>
       </c>
@@ -13418,7 +13417,7 @@
         <v>5.8782961945816083</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="43">
         <v>1.1000000000000001</v>
       </c>
@@ -13497,7 +13496,7 @@
         <v>0.56718555708844898</v>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="43">
         <v>1.1000000000000001</v>
       </c>
@@ -13576,7 +13575,7 @@
         <v>-1.2033188437006506</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="43">
         <v>1.1000000000000001</v>
       </c>
@@ -13634,7 +13633,7 @@
       <c r="Y20" s="138"/>
       <c r="Z20" s="138"/>
     </row>
-    <row r="21" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="43">
         <v>2.1</v>
       </c>
@@ -13706,7 +13705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="43">
         <v>2.1</v>
       </c>
@@ -13785,7 +13784,7 @@
         <v>5.8782961945816083</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="43">
         <v>2.1</v>
       </c>
@@ -13862,7 +13861,7 @@
         <v>0.56593193702428835</v>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="43">
         <v>2.75</v>
       </c>
@@ -13939,7 +13938,7 @@
         <v>-1.2068353899057911</v>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="43">
         <v>2.75</v>
       </c>
@@ -13995,7 +13994,7 @@
       <c r="Y25" s="134"/>
       <c r="Z25" s="134"/>
     </row>
-    <row r="26" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="43">
         <v>2.75</v>
       </c>
@@ -14061,7 +14060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="89"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
@@ -14116,7 +14115,7 @@
         <v>5.862686491645313</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="89"/>
       <c r="C28" s="89"/>
       <c r="D28" s="107"/>
@@ -14173,7 +14172,7 @@
         <v>0.56718555708844898</v>
       </c>
     </row>
-    <row r="29" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="89"/>
       <c r="C29" s="89"/>
       <c r="D29" s="107"/>
@@ -14212,7 +14211,7 @@
         <v>-1.2033188437006506</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="173" t="s">
         <v>82</v>
       </c>
@@ -14244,7 +14243,7 @@
       <c r="Y30" s="134"/>
       <c r="Z30" s="134"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="43">
         <v>1.1000000000000001</v>
       </c>
@@ -14301,7 +14300,7 @@
       <c r="T31" s="42"/>
       <c r="U31" s="42"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="43">
         <v>3.15</v>
       </c>
@@ -14356,7 +14355,7 @@
       </c>
       <c r="S32" s="42"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="43"/>
       <c r="C33" s="107"/>
       <c r="D33" s="43"/>
@@ -14373,7 +14372,7 @@
       <c r="Q33" s="89"/>
       <c r="S33" s="42"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="43"/>
       <c r="C34" s="107"/>
       <c r="D34" s="43"/>
@@ -14406,7 +14405,7 @@
       <c r="Y34" s="42"/>
       <c r="Z34" s="42"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="43"/>
       <c r="C35" s="107"/>
       <c r="D35" s="43"/>
@@ -14439,7 +14438,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="43"/>
       <c r="C36" s="107"/>
       <c r="D36" s="43"/>
@@ -14463,7 +14462,7 @@
       <c r="Y36" s="42"/>
       <c r="Z36" s="42"/>
     </row>
-    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="60" t="s">
         <v>118</v>
       </c>
@@ -14486,7 +14485,7 @@
       <c r="Y37" s="119"/>
       <c r="Z37" s="119"/>
     </row>
-    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K38" s="118"/>
       <c r="L38" s="118"/>
       <c r="M38" s="118"/>
@@ -14504,7 +14503,7 @@
       <c r="Y38" s="119"/>
       <c r="Z38" s="119"/>
     </row>
-    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="158" t="s">
         <v>0</v>
       </c>
@@ -14547,7 +14546,7 @@
       <c r="Y39" s="119"/>
       <c r="Z39" s="119"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="69">
         <f>IF(B7="","",B7)</f>
         <v>2</v>
@@ -14597,7 +14596,7 @@
       <c r="Y40" s="119"/>
       <c r="Z40" s="119"/>
     </row>
-    <row r="41" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B41" s="113">
         <f>IF(B8="","",B8)</f>
         <v>1</v>
@@ -14647,7 +14646,7 @@
       <c r="Y41" s="119"/>
       <c r="Z41" s="119"/>
     </row>
-    <row r="42" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B42" s="40"/>
       <c r="C42" s="103"/>
       <c r="D42" s="40"/>
@@ -14672,7 +14671,7 @@
       <c r="Y42" s="119"/>
       <c r="Z42" s="119"/>
     </row>
-    <row r="43" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="189" t="s">
         <v>116</v>
       </c>
@@ -14715,7 +14714,7 @@
       <c r="Y43" s="119"/>
       <c r="Z43" s="119"/>
     </row>
-    <row r="44" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B44" s="168" t="s">
         <v>72</v>
       </c>
@@ -14763,7 +14762,7 @@
       <c r="Y44" s="119"/>
       <c r="Z44" s="119"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
@@ -14818,21 +14817,21 @@
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="31" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="31"/>
-    <col min="9" max="9" width="4.5703125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="34" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="34" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" style="34" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="34" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="31" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="31"/>
+    <col min="9" max="9" width="4.578125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="4.578125" style="34" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="34" customWidth="1"/>
+    <col min="18" max="18" width="4.578125" style="34" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="34" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="34" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="34"/>
+    <col min="27" max="27" width="4.578125" style="34" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="144" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="145"/>
       <c r="B1" s="145"/>
       <c r="C1" s="145"/>
@@ -14843,7 +14842,7 @@
       <c r="H1" s="145"/>
       <c r="I1" s="145"/>
     </row>
-    <row r="2" spans="1:27" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
       <c r="B2" s="215" t="s">
         <v>46</v>
@@ -14876,7 +14875,7 @@
       <c r="Y2" s="215"/>
       <c r="Z2" s="215"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -14886,7 +14885,7 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="8" t="s">
         <v>117</v>
       </c>
@@ -14920,7 +14919,7 @@
       <c r="Z4" s="54"/>
       <c r="AA4" s="54"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
@@ -14939,7 +14938,7 @@
       <c r="Z5" s="54"/>
       <c r="AA5" s="54"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="63" t="s">
         <v>4</v>
       </c>
@@ -15005,7 +15004,7 @@
       </c>
       <c r="AA6" s="54"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="22" t="str">
         <f>IF(D7="","","1 vs. 2")</f>
         <v>1 vs. 2</v>
@@ -15093,7 +15092,7 @@
       </c>
       <c r="AA7" s="54"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="24" t="str">
         <f>IF(D8="","","1 vs. 3")</f>
         <v>1 vs. 3</v>
@@ -15182,7 +15181,7 @@
       </c>
       <c r="AA8" s="54"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="24" t="str">
         <f>IF(D9="","","2 vs. 3")</f>
         <v>2 vs. 3</v>
@@ -15271,7 +15270,7 @@
       </c>
       <c r="AA9" s="54"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="24" t="str">
         <f>IF(D10="","","1 vs. 4")</f>
         <v/>
@@ -15360,7 +15359,7 @@
       </c>
       <c r="AA10" s="54"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="24" t="str">
         <f>IF(D11="","","2 vs. 4")</f>
         <v/>
@@ -15449,7 +15448,7 @@
       </c>
       <c r="AA11" s="54"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="26" t="str">
         <f>IF(D12="","","3 vs. 4")</f>
         <v/>
@@ -15538,7 +15537,7 @@
       </c>
       <c r="AA12" s="54"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2"/>
       <c r="C13" s="40"/>
       <c r="D13" s="2"/>
@@ -15564,7 +15563,7 @@
       <c r="Z13" s="40"/>
       <c r="AA13" s="54"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="8" t="s">
         <v>119</v>
       </c>
@@ -15581,7 +15580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
@@ -15591,7 +15590,7 @@
       <c r="P15" s="31"/>
       <c r="Q15" s="31"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="142" t="s">
         <v>81</v>
       </c>
@@ -15637,7 +15636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="49" t="s">
         <v>0</v>
       </c>
@@ -15702,7 +15701,7 @@
         <v>-1.2033188437006506</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="51">
         <v>1.1000000000000001</v>
       </c>
@@ -15773,7 +15772,7 @@
         <v>2.0277791683430912E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="51">
         <v>1.1000000000000001</v>
       </c>
@@ -15844,7 +15843,7 @@
         <v>3.6890247741537223</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B20" s="51">
         <v>1.1000000000000001</v>
       </c>
@@ -15916,7 +15915,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="51">
         <v>2.1</v>
       </c>
@@ -15987,7 +15986,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="51">
         <v>2.1</v>
       </c>
@@ -16058,7 +16057,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="51">
         <v>2.1</v>
       </c>
@@ -16108,7 +16107,7 @@
       <c r="Y23" s="103"/>
       <c r="Z23" s="103"/>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="51">
         <v>3.1</v>
       </c>
@@ -16172,7 +16171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="51">
         <v>3.1</v>
       </c>
@@ -16243,7 +16242,7 @@
         <v>-1.2068353899057911</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="51">
         <v>3.1</v>
       </c>
@@ -16314,7 +16313,7 @@
         <v>1.9531066456693225E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="51">
         <v>4.0999999999999996</v>
       </c>
@@ -16385,7 +16384,7 @@
         <v>3.6890247741537223</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="50">
         <v>4.0999999999999996</v>
       </c>
@@ -16456,7 +16455,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="50">
         <v>4.0999999999999996</v>
       </c>
@@ -16527,7 +16526,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="51">
         <v>5.0999999999999996</v>
       </c>
@@ -16598,7 +16597,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="51">
         <v>5.0999999999999996</v>
       </c>
@@ -16648,7 +16647,7 @@
       <c r="Y31" s="54"/>
       <c r="Z31" s="54"/>
     </row>
-    <row r="32" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="51">
         <v>5.0999999999999996</v>
       </c>
@@ -16705,7 +16704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B33" s="51">
         <v>6.1</v>
       </c>
@@ -16768,7 +16767,7 @@
         <v>-1.2033188437006506</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="51">
         <v>6.1</v>
       </c>
@@ -16831,7 +16830,7 @@
         <v>2.0277791683430912E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="51">
         <v>6.1</v>
       </c>
@@ -16894,7 +16893,7 @@
         <v>3.6885385438860414</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -16923,7 +16922,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="60" t="s">
         <v>118</v>
       </c>
@@ -16964,7 +16963,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
@@ -17001,7 +17000,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="92" t="s">
         <v>4</v>
       </c>
@@ -17041,7 +17040,7 @@
       <c r="Y39" s="40"/>
       <c r="Z39" s="40"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="22" t="str">
         <f t="shared" ref="B40:B45" si="33">B7</f>
         <v>1 vs. 2</v>
@@ -17083,7 +17082,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="24" t="str">
         <f t="shared" si="33"/>
         <v>1 vs. 3</v>
@@ -17125,7 +17124,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="24" t="str">
         <f t="shared" si="33"/>
         <v>2 vs. 3</v>
@@ -17167,7 +17166,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="24" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -17205,7 +17204,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="24" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -17243,7 +17242,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B45" s="26" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -17281,7 +17280,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="40"/>
       <c r="C46" s="2"/>
       <c r="D46" s="40"/>
@@ -17298,7 +17297,7 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="35"/>
       <c r="C52" s="54"/>
       <c r="D52" s="54"/>
@@ -17308,7 +17307,7 @@
       <c r="H52" s="54"/>
       <c r="I52" s="54"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="54"/>
     </row>
   </sheetData>

--- a/EASE/EASE(D)-OneWay-Rattan.xlsx
+++ b/EASE/EASE(D)-OneWay-Rattan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="114_{1005B5FA-B6D2-4F23-9301-9CFA46B43EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D32B6AD-038E-4B7C-9FB7-DD0F91051276}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="114_{9C8424FF-C181-4B64-AF13-28DCD2F1B771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3AC538F-1D56-4337-ADB1-C6D730D0231B}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$K$4:$M$4</definedName>
@@ -3830,7 +3831,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3854,7 +3857,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3878,7 +3883,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3902,7 +3909,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3915,6 +3924,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{2CEE114F-3D64-49B8-A8AA-CF84A4A78857}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3926,7 +3940,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3939,6 +3957,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{65305909-8B3A-45AC-A525-9FEFEFEF5CDD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3950,7 +3973,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3963,6 +3990,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{D5AB8262-45C2-4113-BCA2-86EADDDA507B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3974,7 +4006,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3987,6 +4023,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{A16C1D99-AAEB-4196-8710-2F3FC60D9166}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3998,7 +4039,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4011,6 +4056,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{74D1DE72-3C5A-4E36-A938-3359CA05C4EB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4022,7 +4072,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4035,6 +4089,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{D3C3A5BC-3F72-4312-A84C-1891EF3E58D8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4046,7 +4105,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-97B6-4CF0-9A3E-619917FF6CA1}"/>
                 </c:ext>
@@ -4070,7 +4133,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-97B6-4CF0-9A3E-619917FF6CA1}"/>
                 </c:ext>
@@ -4183,6 +4248,47 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$H$18:$H$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-1.000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>-2.000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>-3.000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>-4.000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2B54-48E7-B1A3-3FFDB5D5F70E}"/>
             </c:ext>
@@ -4645,6 +4751,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{D00C8927-6735-4C9E-A082-FC0D148BC211}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4657,7 +4768,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4667,14 +4782,35 @@
               <c:idx val="1"/>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
                     <a:spAutoFit/>
                   </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr b="1"/>
+                      <a:defRPr b="1">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:defRPr>
                     </a:pPr>
+                    <a:fld id="{DB667CCE-B3AF-4206-A367-67BF5791A817}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr b="1">
+                          <a:ln>
+                            <a:noFill/>
+                          </a:ln>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4694,7 +4830,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4707,6 +4847,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{979A7EE3-3AE7-4CBE-AAF1-93975244C425}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4719,7 +4864,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4732,6 +4881,25 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -4785,6 +4953,23 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$D$24:$D$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>-0.757</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-1.931</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>-3.107</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-7ACD-4577-9B6C-3FD6C97D6069}"/>
             </c:ext>
@@ -5054,7 +5239,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5078,7 +5265,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5102,7 +5291,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5115,6 +5306,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{D5ECDA05-8077-4C74-9D70-DF6964121417}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5126,7 +5322,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5139,6 +5339,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{98F88405-7D2B-40A2-A1C9-90501C7F6F76}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5150,7 +5355,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5163,6 +5372,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{5C931522-D238-4C97-8AF0-EBEE65035A07}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5174,7 +5388,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5187,6 +5405,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{2DF882EF-A9DD-44C7-AE85-326B5F9EFE80}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5198,7 +5421,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5211,6 +5438,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{E54EB483-99EF-495D-9EBF-7DBE26D0F392}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5222,7 +5454,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5235,6 +5471,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{F081425B-35D5-4CF2-BE60-9E5590EFD9D2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5246,7 +5487,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5259,6 +5504,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{CAD23FBB-9CDB-4B09-BFBF-3E5732CC7EC6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5270,7 +5520,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5294,7 +5548,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5407,6 +5663,47 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$Q$18:$Q$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.500</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-0.500</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>-1.000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>-1.500</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>-2.000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-FD7C-4E91-9B2D-29D3A1F40736}"/>
             </c:ext>
@@ -5862,6 +6159,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{B07B4DC5-2317-4CDD-97F9-B2C7EB48E9CB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5874,7 +6176,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5892,6 +6198,13 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
+                    <a:fld id="{F9545A8F-5998-42C7-90B8-0B8F1FA83D0B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr b="1"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5911,7 +6224,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5924,6 +6241,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{C56E49E4-DE2A-456A-B2A4-6030F4AC874E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5936,7 +6258,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -6002,6 +6328,23 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$M$24:$M$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>-0.407</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-1.106</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>-1.840</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000019-FD7C-4E91-9B2D-29D3A1F40736}"/>
             </c:ext>
@@ -8631,16 +8974,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>302895</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152397</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>188592</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>40002</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8670,15 +9013,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>160017</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>13335</xdr:colOff>
+      <xdr:colOff>20955</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>5712</xdr:rowOff>
+      <xdr:rowOff>47622</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8853,6 +9196,270 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Intro"/>
+      <sheetName val="Data"/>
+      <sheetName val="Means"/>
+      <sheetName val="OneComp"/>
+      <sheetName val="Pairwise"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="7">
+          <cell r="D7">
+            <v>23.6</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>19.3</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="C18">
+            <v>25.828684603371659</v>
+          </cell>
+          <cell r="F18">
+            <v>3.15</v>
+          </cell>
+          <cell r="G18" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="H18" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="C19">
+            <v>23.6</v>
+          </cell>
+          <cell r="F19">
+            <v>3.15</v>
+          </cell>
+          <cell r="G19" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="H19" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="C20">
+            <v>21.371315396628344</v>
+          </cell>
+          <cell r="F20">
+            <v>3.15</v>
+          </cell>
+          <cell r="G20" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="H20" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>2.1</v>
+          </cell>
+          <cell r="C21">
+            <v>22.063157055503204</v>
+          </cell>
+          <cell r="F21">
+            <v>3.15</v>
+          </cell>
+          <cell r="G21" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="H21" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>2.1</v>
+          </cell>
+          <cell r="C22">
+            <v>19.3</v>
+          </cell>
+          <cell r="F22">
+            <v>3.15</v>
+          </cell>
+          <cell r="G22">
+            <v>28.6</v>
+          </cell>
+          <cell r="H22">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>2.1</v>
+          </cell>
+          <cell r="C23">
+            <v>16.536842944496797</v>
+          </cell>
+          <cell r="F23">
+            <v>3.15</v>
+          </cell>
+          <cell r="G23">
+            <v>23.6</v>
+          </cell>
+          <cell r="H23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>2.75</v>
+          </cell>
+          <cell r="C24">
+            <v>21.855402368824418</v>
+          </cell>
+          <cell r="D24">
+            <v>-1.7445976311755844</v>
+          </cell>
+          <cell r="F24">
+            <v>3.15</v>
+          </cell>
+          <cell r="G24">
+            <v>18.600000000000001</v>
+          </cell>
+          <cell r="H24">
+            <v>-5</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>2.75</v>
+          </cell>
+          <cell r="C25">
+            <v>19.3</v>
+          </cell>
+          <cell r="D25">
+            <v>-4.3000000000000007</v>
+          </cell>
+          <cell r="F25">
+            <v>3.15</v>
+          </cell>
+          <cell r="G25">
+            <v>13.600000000000001</v>
+          </cell>
+          <cell r="H25">
+            <v>-10</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>2.75</v>
+          </cell>
+          <cell r="C26">
+            <v>16.744597631175584</v>
+          </cell>
+          <cell r="D26">
+            <v>-6.855402368824417</v>
+          </cell>
+          <cell r="F26">
+            <v>3.15</v>
+          </cell>
+          <cell r="G26" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="H26" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="F27">
+            <v>3.15</v>
+          </cell>
+          <cell r="G27" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="H27" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="F28">
+            <v>3.15</v>
+          </cell>
+          <cell r="G28" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="H28" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="C31">
+            <v>23.6</v>
+          </cell>
+          <cell r="D31">
+            <v>2.1</v>
+          </cell>
+          <cell r="E31">
+            <v>19.3</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>3.15</v>
+          </cell>
+          <cell r="C32">
+            <v>23.6</v>
+          </cell>
+          <cell r="D32">
+            <v>3.15</v>
+          </cell>
+          <cell r="E32">
+            <v>19.3</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>Subset</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>Difference</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10946,7 +11553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
@@ -12796,8 +13403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showRuler="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/EASE/EASE(D)-OneWay-Rattan.xlsx
+++ b/EASE/EASE(D)-OneWay-Rattan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="114_{9C8424FF-C181-4B64-AF13-28DCD2F1B771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3AC538F-1D56-4337-ADB1-C6D730D0231B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{1189771A-698D-425C-A5E8-1F7302760335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="31" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$K$4:$M$4</definedName>
@@ -1439,15 +1438,11 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1477,6 +1472,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3831,9 +3830,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3857,9 +3854,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3883,9 +3878,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3909,9 +3902,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3924,7 +3915,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2CEE114F-3D64-49B8-A8AA-CF84A4A78857}" type="CELLRANGE">
+                    <a:fld id="{FDEA2EFE-676D-4259-BFDC-B8A826B6A08D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3957,7 +3948,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65305909-8B3A-45AC-A525-9FEFEFEF5CDD}" type="CELLRANGE">
+                    <a:fld id="{81DFCE19-2E33-40C4-BD92-5625867F7CC6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3990,7 +3981,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5AB8262-45C2-4113-BCA2-86EADDDA507B}" type="CELLRANGE">
+                    <a:fld id="{3FF05FA6-7817-4CD8-9801-9EF2440A0F9F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4023,7 +4014,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A16C1D99-AAEB-4196-8710-2F3FC60D9166}" type="CELLRANGE">
+                    <a:fld id="{25838C3A-CED9-454C-8B87-5481F68C0475}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4056,7 +4047,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74D1DE72-3C5A-4E36-A938-3359CA05C4EB}" type="CELLRANGE">
+                    <a:fld id="{205CF3CA-C57F-4069-A4CA-CC4D23E7BA31}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4089,7 +4080,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3C3A5BC-3F72-4312-A84C-1891EF3E58D8}" type="CELLRANGE">
+                    <a:fld id="{30137AE9-99AC-4B5A-B6D8-228B7D045695}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4133,9 +4124,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-97B6-4CF0-9A3E-619917FF6CA1}"/>
                 </c:ext>
@@ -4751,7 +4740,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D00C8927-6735-4C9E-A082-FC0D148BC211}" type="CELLRANGE">
+                    <a:fld id="{5D6392C3-D444-4DF8-A8B7-C012E0E0535C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4797,7 +4786,7 @@
                         </a:solidFill>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{DB667CCE-B3AF-4206-A367-67BF5791A817}" type="CELLRANGE">
+                    <a:fld id="{B402DC9C-8921-4DDF-A1D7-A8AFA4162E82}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1">
@@ -4847,7 +4836,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{979A7EE3-3AE7-4CBE-AAF1-93975244C425}" type="CELLRANGE">
+                    <a:fld id="{CEE05226-CAE7-4FBF-B742-7B21CA19F738}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5239,9 +5228,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5265,9 +5252,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5291,9 +5276,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5306,7 +5289,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5ECDA05-8077-4C74-9D70-DF6964121417}" type="CELLRANGE">
+                    <a:fld id="{ABB5041D-2C5E-4A31-913B-F7C2DE7B7AD3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5339,7 +5322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98F88405-7D2B-40A2-A1C9-90501C7F6F76}" type="CELLRANGE">
+                    <a:fld id="{B475BE45-24F7-4909-A284-391763ED33DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5372,7 +5355,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C931522-D238-4C97-8AF0-EBEE65035A07}" type="CELLRANGE">
+                    <a:fld id="{05BAED53-7944-49E3-9F7D-8E9BD45EB13E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5405,7 +5388,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2DF882EF-A9DD-44C7-AE85-326B5F9EFE80}" type="CELLRANGE">
+                    <a:fld id="{DF553415-6A37-4EA9-82B4-E97725BDB344}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5438,7 +5421,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E54EB483-99EF-495D-9EBF-7DBE26D0F392}" type="CELLRANGE">
+                    <a:fld id="{B0C1299C-C072-4BA2-9977-DBF5C0160508}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5471,7 +5454,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F081425B-35D5-4CF2-BE60-9E5590EFD9D2}" type="CELLRANGE">
+                    <a:fld id="{CF52A580-816A-4ED3-9CB9-10BC2F014B74}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5504,7 +5487,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CAD23FBB-9CDB-4B09-BFBF-3E5732CC7EC6}" type="CELLRANGE">
+                    <a:fld id="{64A0AD31-86ED-4B82-9B59-C3B11FB48D04}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5548,9 +5531,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -6159,7 +6140,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B07B4DC5-2317-4CDD-97F9-B2C7EB48E9CB}" type="CELLRANGE">
+                    <a:fld id="{790EE12A-626E-488B-894A-51CC39CD85B7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6198,7 +6179,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{F9545A8F-5998-42C7-90B8-0B8F1FA83D0B}" type="CELLRANGE">
+                    <a:fld id="{8B7C2453-BD8C-4397-BC16-1E9DCB516FC3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -6241,7 +6222,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C56E49E4-DE2A-456A-B2A4-6030F4AC874E}" type="CELLRANGE">
+                    <a:fld id="{C13EC0D0-D073-41BA-AD38-6A214F5FC31E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9201,270 +9182,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Intro"/>
-      <sheetName val="Data"/>
-      <sheetName val="Means"/>
-      <sheetName val="OneComp"/>
-      <sheetName val="Pairwise"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="7">
-          <cell r="D7">
-            <v>23.6</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>19.3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="C18">
-            <v>25.828684603371659</v>
-          </cell>
-          <cell r="F18">
-            <v>3.15</v>
-          </cell>
-          <cell r="G18" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H18" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="C19">
-            <v>23.6</v>
-          </cell>
-          <cell r="F19">
-            <v>3.15</v>
-          </cell>
-          <cell r="G19" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H19" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="C20">
-            <v>21.371315396628344</v>
-          </cell>
-          <cell r="F20">
-            <v>3.15</v>
-          </cell>
-          <cell r="G20" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H20" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>2.1</v>
-          </cell>
-          <cell r="C21">
-            <v>22.063157055503204</v>
-          </cell>
-          <cell r="F21">
-            <v>3.15</v>
-          </cell>
-          <cell r="G21" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H21" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>2.1</v>
-          </cell>
-          <cell r="C22">
-            <v>19.3</v>
-          </cell>
-          <cell r="F22">
-            <v>3.15</v>
-          </cell>
-          <cell r="G22">
-            <v>28.6</v>
-          </cell>
-          <cell r="H22">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>2.1</v>
-          </cell>
-          <cell r="C23">
-            <v>16.536842944496797</v>
-          </cell>
-          <cell r="F23">
-            <v>3.15</v>
-          </cell>
-          <cell r="G23">
-            <v>23.6</v>
-          </cell>
-          <cell r="H23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>2.75</v>
-          </cell>
-          <cell r="C24">
-            <v>21.855402368824418</v>
-          </cell>
-          <cell r="D24">
-            <v>-1.7445976311755844</v>
-          </cell>
-          <cell r="F24">
-            <v>3.15</v>
-          </cell>
-          <cell r="G24">
-            <v>18.600000000000001</v>
-          </cell>
-          <cell r="H24">
-            <v>-5</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>2.75</v>
-          </cell>
-          <cell r="C25">
-            <v>19.3</v>
-          </cell>
-          <cell r="D25">
-            <v>-4.3000000000000007</v>
-          </cell>
-          <cell r="F25">
-            <v>3.15</v>
-          </cell>
-          <cell r="G25">
-            <v>13.600000000000001</v>
-          </cell>
-          <cell r="H25">
-            <v>-10</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>2.75</v>
-          </cell>
-          <cell r="C26">
-            <v>16.744597631175584</v>
-          </cell>
-          <cell r="D26">
-            <v>-6.855402368824417</v>
-          </cell>
-          <cell r="F26">
-            <v>3.15</v>
-          </cell>
-          <cell r="G26" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H26" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>3.15</v>
-          </cell>
-          <cell r="G27" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H27" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>3.15</v>
-          </cell>
-          <cell r="G28" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H28" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="C31">
-            <v>23.6</v>
-          </cell>
-          <cell r="D31">
-            <v>2.1</v>
-          </cell>
-          <cell r="E31">
-            <v>19.3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>3.15</v>
-          </cell>
-          <cell r="C32">
-            <v>23.6</v>
-          </cell>
-          <cell r="D32">
-            <v>3.15</v>
-          </cell>
-          <cell r="E32">
-            <v>19.3</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43" t="str">
-            <v>Subset</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44" t="str">
-            <v>Difference</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9791,7 +9508,7 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -10210,31 +9927,31 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="K2" s="206" t="s">
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="K2" s="205" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
       <c r="N2" s="148"/>
       <c r="O2" s="148"/>
-      <c r="R2" s="206" t="s">
+      <c r="R2" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="206"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
     </row>
     <row r="3" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E3" s="1"/>
@@ -10292,15 +10009,15 @@
       <c r="X5" s="54"/>
     </row>
     <row r="6" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="210" t="s">
+      <c r="B6" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
       <c r="K6" s="21">
         <v>2</v>
       </c>
@@ -10334,15 +10051,15 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="212" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="213"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
       <c r="K7" s="21">
         <v>3</v>
       </c>
@@ -10382,13 +10099,13 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="214"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="214"/>
-      <c r="H8" s="214"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
       <c r="K8" s="21">
         <v>4</v>
       </c>
@@ -10474,15 +10191,15 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="211" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="212"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="212"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="212"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
       <c r="K10" s="21">
         <v>6</v>
       </c>
@@ -10521,15 +10238,15 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="206" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="207"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="207"/>
-      <c r="H11" s="207"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
       <c r="K11" s="21">
         <v>7</v>
       </c>
@@ -10568,13 +10285,13 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="208"/>
-      <c r="C12" s="208"/>
-      <c r="D12" s="208"/>
-      <c r="E12" s="208"/>
-      <c r="F12" s="208"/>
-      <c r="G12" s="208"/>
-      <c r="H12" s="208"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="207"/>
       <c r="K12" s="21">
         <v>8</v>
       </c>
@@ -10594,13 +10311,13 @@
       <c r="X12" s="40"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="208"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="208"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="207"/>
       <c r="K13" s="21">
         <v>9</v>
       </c>
@@ -10622,13 +10339,13 @@
       <c r="X13" s="54"/>
     </row>
     <row r="14" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="209"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="209"/>
+      <c r="B14" s="208"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="208"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="208"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="208"/>
       <c r="K14" s="21">
         <v>10</v>
       </c>
@@ -10746,16 +10463,16 @@
       <c r="X20" s="54"/>
     </row>
     <row r="21" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211" t="s">
+      <c r="C21" s="209"/>
+      <c r="D21" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="211"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="211"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="11" t="s">
         <v>28</v>
       </c>
@@ -10790,16 +10507,16 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="204" t="s">
+      <c r="B22" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="204"/>
-      <c r="D22" s="204" t="s">
+      <c r="C22" s="203"/>
+      <c r="D22" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="204"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="204"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="203"/>
       <c r="H22" s="105">
         <v>1</v>
       </c>
@@ -10824,16 +10541,16 @@
       <c r="X22" s="110"/>
     </row>
     <row r="23" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="203" t="s">
+      <c r="B23" s="204" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="203"/>
-      <c r="D23" s="203" t="s">
+      <c r="C23" s="204"/>
+      <c r="D23" s="204" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="203"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="203"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="204"/>
       <c r="H23" s="106">
         <v>2</v>
       </c>
@@ -10921,16 +10638,16 @@
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="204" t="s">
+      <c r="B26" s="203" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="204"/>
-      <c r="D26" s="204" t="s">
+      <c r="C26" s="203"/>
+      <c r="D26" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
       <c r="H26" s="105">
         <v>1</v>
       </c>
@@ -10953,16 +10670,16 @@
       <c r="X26" s="40"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="205" t="s">
+      <c r="B27" s="214" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="205"/>
-      <c r="D27" s="205" t="s">
+      <c r="C27" s="214"/>
+      <c r="D27" s="214" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="205"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="205"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
       <c r="H27" s="53">
         <v>2</v>
       </c>
@@ -10987,16 +10704,16 @@
       <c r="X27" s="54"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="205" t="s">
+      <c r="B28" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="205"/>
-      <c r="D28" s="205" t="s">
+      <c r="C28" s="214"/>
+      <c r="D28" s="214" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="205"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="205"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
       <c r="H28" s="53">
         <v>3</v>
       </c>
@@ -11019,12 +10736,12 @@
       <c r="X28" s="54"/>
     </row>
     <row r="29" spans="2:24" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B29" s="203"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="203"/>
+      <c r="B29" s="204"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
       <c r="H29" s="106"/>
       <c r="K29" s="21">
         <v>25</v>
@@ -11519,6 +11236,14 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:M4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -11532,14 +11257,6 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13403,7 +13120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>

--- a/EASE/EASE(D)-OneWay-Rattan.xlsx
+++ b/EASE/EASE(D)-OneWay-Rattan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{1189771A-698D-425C-A5E8-1F7302760335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="114_{1189771A-698D-425C-A5E8-1F7302760335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5A5827EE-B605-4601-89B7-3C099C5E5216}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="31" r:id="rId1"/>
@@ -417,9 +417,6 @@
     <t>EASE also includes null hypothesis significance tests.</t>
   </si>
   <si>
-    <t>http://www4.uwsp.edu/psych/cw/</t>
-  </si>
-  <si>
     <t>Using this Module</t>
   </si>
   <si>
@@ -478,6 +475,9 @@
   </si>
   <si>
     <t>https://cwendorf.github.io/BASE/EASE</t>
+  </si>
+  <si>
+    <t>http://cwendorf.github.io</t>
   </si>
 </sst>
 </file>
@@ -1438,11 +1438,15 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1472,10 +1476,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3830,7 +3830,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3854,7 +3856,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3878,7 +3882,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3902,7 +3908,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3915,7 +3923,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FDEA2EFE-676D-4259-BFDC-B8A826B6A08D}" type="CELLRANGE">
+                    <a:fld id="{6B31E18B-CFC5-42C0-8D49-A017892B7F2B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3948,7 +3956,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81DFCE19-2E33-40C4-BD92-5625867F7CC6}" type="CELLRANGE">
+                    <a:fld id="{0D8D4B39-7AE8-4944-9D9E-4833202A37AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3981,7 +3989,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3FF05FA6-7817-4CD8-9801-9EF2440A0F9F}" type="CELLRANGE">
+                    <a:fld id="{C761EEB2-F112-4FAE-9FF1-E07878913477}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4014,7 +4022,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25838C3A-CED9-454C-8B87-5481F68C0475}" type="CELLRANGE">
+                    <a:fld id="{E132980F-DAF6-41AB-B8E5-A5397EF4AC53}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4047,7 +4055,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{205CF3CA-C57F-4069-A4CA-CC4D23E7BA31}" type="CELLRANGE">
+                    <a:fld id="{E7DFE3EF-5527-40B9-A8FD-8682098FD86C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4080,7 +4088,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30137AE9-99AC-4B5A-B6D8-228B7D045695}" type="CELLRANGE">
+                    <a:fld id="{E8AECCC2-1327-47DB-ABC8-87BBDAB4CC54}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4124,7 +4132,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-97B6-4CF0-9A3E-619917FF6CA1}"/>
                 </c:ext>
@@ -4740,7 +4750,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D6392C3-D444-4DF8-A8B7-C012E0E0535C}" type="CELLRANGE">
+                    <a:fld id="{08F391A0-9C75-4E71-9B49-D2321DEFA77C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4786,7 +4796,7 @@
                         </a:solidFill>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{B402DC9C-8921-4DDF-A1D7-A8AFA4162E82}" type="CELLRANGE">
+                    <a:fld id="{13989954-06DA-4F1B-A5B6-36544C7BF27D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1">
@@ -4836,7 +4846,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEE05226-CAE7-4FBF-B742-7B21CA19F738}" type="CELLRANGE">
+                    <a:fld id="{2BE86174-0FC3-4733-ABD1-B4D0A2F64BA4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5228,7 +5238,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5252,7 +5264,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5276,7 +5290,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5289,7 +5305,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ABB5041D-2C5E-4A31-913B-F7C2DE7B7AD3}" type="CELLRANGE">
+                    <a:fld id="{B04067A7-035B-4543-88FF-F8023A316462}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5322,7 +5338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B475BE45-24F7-4909-A284-391763ED33DA}" type="CELLRANGE">
+                    <a:fld id="{C634FC65-A6AE-487D-B810-80092BF7F120}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5355,7 +5371,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05BAED53-7944-49E3-9F7D-8E9BD45EB13E}" type="CELLRANGE">
+                    <a:fld id="{5915B2BC-A0C8-4196-8CB0-C9C4FF5DA8FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5388,7 +5404,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF553415-6A37-4EA9-82B4-E97725BDB344}" type="CELLRANGE">
+                    <a:fld id="{D14EF08E-4EF2-402F-934B-DAD6A8874D6E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5421,7 +5437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0C1299C-C072-4BA2-9977-DBF5C0160508}" type="CELLRANGE">
+                    <a:fld id="{F646D4F2-9226-4E73-A045-3AD07F8355E3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5454,7 +5470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF52A580-816A-4ED3-9CB9-10BC2F014B74}" type="CELLRANGE">
+                    <a:fld id="{74281BDE-8E82-478A-AED1-33B50E3275F9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5487,7 +5503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64A0AD31-86ED-4B82-9B59-C3B11FB48D04}" type="CELLRANGE">
+                    <a:fld id="{1D0FF636-37C6-4A27-803B-ADF826E6644C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5531,7 +5547,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -6140,7 +6158,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{790EE12A-626E-488B-894A-51CC39CD85B7}" type="CELLRANGE">
+                    <a:fld id="{6388AF87-2CCE-4237-9023-0139155F9905}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6179,7 +6197,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{8B7C2453-BD8C-4397-BC16-1E9DCB516FC3}" type="CELLRANGE">
+                    <a:fld id="{C95EC764-8D2C-43A5-8E92-0A431E80D92E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -6222,7 +6240,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C13EC0D0-D073-41BA-AD38-6A214F5FC31E}" type="CELLRANGE">
+                    <a:fld id="{A48B0A79-CFFF-4A07-89A9-60F2251A5E4C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9508,8 +9526,8 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -9528,7 +9546,7 @@
     <row r="2" spans="1:17" s="145" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="149"/>
       <c r="B2" s="199" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="199"/>
       <c r="D2" s="199"/>
@@ -9562,7 +9580,7 @@
       <c r="I3" s="198"/>
       <c r="J3" s="198"/>
       <c r="K3" s="201" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L3" s="201"/>
       <c r="M3" s="201"/>
@@ -9585,7 +9603,7 @@
       <c r="I4" s="198"/>
       <c r="J4" s="198"/>
       <c r="K4" s="202" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L4" s="201"/>
       <c r="M4" s="201"/>
@@ -9753,13 +9771,13 @@
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="31"/>
       <c r="B25" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>111</v>
       </c>
       <c r="K25" s="197" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -9776,7 +9794,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="197" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -9796,10 +9814,10 @@
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="31"/>
       <c r="B28" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9839,7 +9857,7 @@
         <v>99</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9854,7 +9872,7 @@
         <v>100</v>
       </c>
       <c r="K32" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9927,31 +9945,31 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="206" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="K2" s="205" t="s">
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="K2" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
       <c r="N2" s="148"/>
       <c r="O2" s="148"/>
-      <c r="R2" s="205" t="s">
+      <c r="R2" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="205"/>
-      <c r="T2" s="205"/>
-      <c r="U2" s="205"/>
-      <c r="V2" s="205"/>
-      <c r="W2" s="205"/>
-      <c r="X2" s="205"/>
+      <c r="S2" s="206"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
     </row>
     <row r="3" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E3" s="1"/>
@@ -10009,15 +10027,15 @@
       <c r="X5" s="54"/>
     </row>
     <row r="6" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="209" t="s">
+      <c r="B6" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="210"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
       <c r="K6" s="21">
         <v>2</v>
       </c>
@@ -10051,15 +10069,15 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="212" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
+      <c r="B7" s="213" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="213"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="213"/>
       <c r="K7" s="21">
         <v>3</v>
       </c>
@@ -10099,13 +10117,13 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="214"/>
       <c r="K8" s="21">
         <v>4</v>
       </c>
@@ -10191,15 +10209,15 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="211" t="s">
+      <c r="B10" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="211"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="212"/>
       <c r="K10" s="21">
         <v>6</v>
       </c>
@@ -10238,15 +10256,15 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="206" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="206"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="206"/>
+      <c r="B11" s="207" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="207"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="207"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="207"/>
       <c r="K11" s="21">
         <v>7</v>
       </c>
@@ -10285,13 +10303,13 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="207"/>
-      <c r="C12" s="207"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="207"/>
-      <c r="F12" s="207"/>
-      <c r="G12" s="207"/>
-      <c r="H12" s="207"/>
+      <c r="B12" s="208"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="208"/>
+      <c r="E12" s="208"/>
+      <c r="F12" s="208"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="208"/>
       <c r="K12" s="21">
         <v>8</v>
       </c>
@@ -10311,13 +10329,13 @@
       <c r="X12" s="40"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="207"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="207"/>
+      <c r="B13" s="208"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="208"/>
+      <c r="F13" s="208"/>
+      <c r="G13" s="208"/>
+      <c r="H13" s="208"/>
       <c r="K13" s="21">
         <v>9</v>
       </c>
@@ -10339,13 +10357,13 @@
       <c r="X13" s="54"/>
     </row>
     <row r="14" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="208"/>
-      <c r="C14" s="208"/>
-      <c r="D14" s="208"/>
-      <c r="E14" s="208"/>
-      <c r="F14" s="208"/>
-      <c r="G14" s="208"/>
-      <c r="H14" s="208"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="209"/>
+      <c r="H14" s="209"/>
       <c r="K14" s="21">
         <v>10</v>
       </c>
@@ -10463,16 +10481,16 @@
       <c r="X20" s="54"/>
     </row>
     <row r="21" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="209" t="s">
+      <c r="B21" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="209"/>
-      <c r="D21" s="210" t="s">
+      <c r="C21" s="210"/>
+      <c r="D21" s="211" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="211"/>
       <c r="H21" s="11" t="s">
         <v>28</v>
       </c>
@@ -10507,16 +10525,16 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="203" t="s">
+      <c r="B22" s="204" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="204"/>
+      <c r="D22" s="204" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="203"/>
-      <c r="D22" s="203" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="203"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
       <c r="H22" s="105">
         <v>1</v>
       </c>
@@ -10541,16 +10559,16 @@
       <c r="X22" s="110"/>
     </row>
     <row r="23" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="204" t="s">
+      <c r="B23" s="203" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="203"/>
+      <c r="D23" s="203" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="204"/>
-      <c r="D23" s="204" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="204"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="204"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="203"/>
       <c r="H23" s="106">
         <v>2</v>
       </c>
@@ -10638,16 +10656,16 @@
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="203" t="s">
+      <c r="B26" s="204" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="204"/>
+      <c r="D26" s="204" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
       <c r="H26" s="105">
         <v>1</v>
       </c>
@@ -10670,16 +10688,16 @@
       <c r="X26" s="40"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="214" t="s">
+      <c r="B27" s="205" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="205"/>
+      <c r="D27" s="205" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="214"/>
-      <c r="D27" s="214" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="214"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
       <c r="H27" s="53">
         <v>2</v>
       </c>
@@ -10704,16 +10722,16 @@
       <c r="X27" s="54"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="214" t="s">
+      <c r="B28" s="205" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="205"/>
+      <c r="D28" s="205" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="214"/>
-      <c r="D28" s="214" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="214"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="214"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="205"/>
       <c r="H28" s="53">
         <v>3</v>
       </c>
@@ -10736,12 +10754,12 @@
       <c r="X28" s="54"/>
     </row>
     <row r="29" spans="2:24" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B29" s="204"/>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
+      <c r="B29" s="203"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="203"/>
       <c r="H29" s="106"/>
       <c r="K29" s="21">
         <v>25</v>
@@ -11236,14 +11254,6 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:M4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -11257,6 +11267,14 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13120,7 +13138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>

--- a/EASE/EASE(D)-OneWay-Rattan.xlsx
+++ b/EASE/EASE(D)-OneWay-Rattan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="114_{1189771A-698D-425C-A5E8-1F7302760335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96BE0948-6240-4324-82D4-67A78920D7CD}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="114_{1189771A-698D-425C-A5E8-1F7302760335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{074B2776-2B89-4C7F-A9B4-89854D2F50DC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <definedName name="SPSS">[2]Data!#REF!</definedName>
     <definedName name="SPSS2">[3]Data!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -459,16 +459,10 @@
     <t>Just Encouragement</t>
   </si>
   <si>
-    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
-  </si>
-  <si>
     <t>How to Cite</t>
   </si>
   <si>
     <t>cwendorf@uwsp.edu</t>
-  </si>
-  <si>
-    <t>Version: 2.20200104</t>
   </si>
   <si>
     <t>https://cwendorf.github.io/BASE/EASE</t>
@@ -477,7 +471,13 @@
     <t>http://cwendorf.github.io</t>
   </si>
   <si>
-    <t>Wendorf, C. A. (2020).</t>
+    <t>Version: 2.210601</t>
+  </si>
+  <si>
+    <t>Wendorf, C. A. (2021).</t>
+  </si>
+  <si>
+    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
   </si>
 </sst>
 </file>
@@ -1186,11 +1186,15 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1220,10 +1224,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3668,7 +3668,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFA4BE5E-F17C-4D44-9352-932CB5E0FA49}" type="CELLRANGE">
+                    <a:fld id="{0C0890D3-8749-4FF3-A2DE-C14AD7CD969E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3701,7 +3701,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA6303A7-6D9A-452A-B1DC-373F68535F5E}" type="CELLRANGE">
+                    <a:fld id="{3F284373-E874-4CFE-AB10-1185AFEA5F9A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3734,7 +3734,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B473513E-9576-4240-B8EB-31C96E234750}" type="CELLRANGE">
+                    <a:fld id="{1AAB761C-0505-45DA-B36E-9D0A768D59CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3767,7 +3767,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9847C28-0D32-4099-9DA7-5CC7D39FED77}" type="CELLRANGE">
+                    <a:fld id="{985A0E34-556D-4731-BBC7-CE7AAC3C7952}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3800,7 +3800,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4A14119-F950-4116-A709-90C3C04D7AFD}" type="CELLRANGE">
+                    <a:fld id="{86E85CE3-97D8-465A-A733-AA1D79AEE674}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3833,7 +3833,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A1483C6-137C-461E-B9EA-B3A03B3EAB80}" type="CELLRANGE">
+                    <a:fld id="{06859B73-BD78-41A5-BEB7-BBA95A8D0F59}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4495,7 +4495,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA21E7EF-740B-48F3-BDC4-73749029BB68}" type="CELLRANGE">
+                    <a:fld id="{E0B912B7-E2DA-44FB-86CE-8A978BFD17E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4541,7 +4541,7 @@
                         </a:solidFill>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{6D3FEEAB-1B19-4491-B8D1-3737C53A2605}" type="CELLRANGE">
+                    <a:fld id="{15921A87-FE78-427A-AF35-5CD7390A2FA8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1">
@@ -4591,7 +4591,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7781B5DC-FE82-4CEA-9EE3-A601530B988C}" type="CELLRANGE">
+                    <a:fld id="{F8E659CF-172D-41ED-B14C-7E2C476724CF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5050,7 +5050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25A4714A-5141-40CB-ADED-0AD89D0DD6C0}" type="CELLRANGE">
+                    <a:fld id="{9CC1C910-5591-440B-BFA1-2A86281148AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5083,7 +5083,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{344087E2-3479-43A0-9C85-3BDFA091FA67}" type="CELLRANGE">
+                    <a:fld id="{71CF4C88-F812-4A22-80EB-894C3453537D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5116,7 +5116,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D4C44D0-3C6E-43AF-8575-CEECAD4F8EE8}" type="CELLRANGE">
+                    <a:fld id="{B98FD284-C54A-41C5-8A17-6185894D09C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5149,7 +5149,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E536534-76D8-4D45-8E47-1E342E3783C6}" type="CELLRANGE">
+                    <a:fld id="{ABA5830F-1F77-49FE-8086-1A11D5F4B195}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5182,7 +5182,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8874B0C-43F1-4F84-AEB0-380B2292136F}" type="CELLRANGE">
+                    <a:fld id="{313264EC-C4B5-4164-8ACE-1665B7CEB747}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5215,7 +5215,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89AAA94B-3AE6-466A-8400-94CE300B0DD2}" type="CELLRANGE">
+                    <a:fld id="{0FE0B439-48D3-470E-BC8E-23512FA2926C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5248,7 +5248,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1E2CBCA-ADFA-4C4A-B6AB-487D79558D50}" type="CELLRANGE">
+                    <a:fld id="{628F0BC2-9CB8-4A70-962F-42381447881E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5903,7 +5903,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D3AE51E-49D5-48D9-B386-29BDFBA61B3A}" type="CELLRANGE">
+                    <a:fld id="{A3BA205A-513E-4F2D-B3EB-FA414A1828F7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5942,7 +5942,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{81673F85-88D6-4298-AD72-D655FBD1B385}" type="CELLRANGE">
+                    <a:fld id="{A0FE1032-71A0-4EDD-8CA6-7555D2EE5BA4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5985,7 +5985,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5ED71E14-9B69-4A47-A322-91DC74BF184B}" type="CELLRANGE">
+                    <a:fld id="{AC12928B-D98A-4792-9F9A-8C405D3D3FA3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8945,10 +8945,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9275,8 +9271,8 @@
   </sheetPr>
   <dimension ref="B2:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9324,7 +9320,7 @@
       <c r="I3" s="94"/>
       <c r="J3" s="94"/>
       <c r="K3" s="117" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L3" s="117"/>
       <c r="M3" s="117"/>
@@ -9344,7 +9340,7 @@
       <c r="G4" s="117"/>
       <c r="H4" s="117"/>
       <c r="K4" s="118" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L4" s="117"/>
       <c r="M4" s="117"/>
@@ -9497,7 +9493,7 @@
         <v>110</v>
       </c>
       <c r="K25" s="114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -9513,7 +9509,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="114" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -9534,7 +9530,7 @@
         <v>122</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9557,7 +9553,7 @@
         <v>97</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -9571,7 +9567,7 @@
         <v>98</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9585,7 +9581,7 @@
         <v>99</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9653,31 +9649,31 @@
       <c r="M1"/>
     </row>
     <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="K2" s="121" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
       <c r="N2" s="91"/>
       <c r="O2" s="91"/>
-      <c r="R2" s="121" t="s">
+      <c r="R2" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
     </row>
     <row r="3" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E3" s="1"/>
@@ -9717,15 +9713,15 @@
       </c>
     </row>
     <row r="6" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
       <c r="K6" s="18">
         <v>2</v>
       </c>
@@ -9758,15 +9754,15 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
       <c r="K7" s="18">
         <v>3</v>
       </c>
@@ -9805,13 +9801,13 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
       <c r="K8" s="18">
         <v>4</v>
       </c>
@@ -9895,15 +9891,15 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
       <c r="K10" s="18">
         <v>6</v>
       </c>
@@ -9942,15 +9938,15 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
       <c r="K11" s="18">
         <v>7</v>
       </c>
@@ -9988,13 +9984,13 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
       <c r="K12" s="18">
         <v>8</v>
       </c>
@@ -10013,13 +10009,13 @@
       <c r="X12" s="8"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
       <c r="K13" s="18">
         <v>9</v>
       </c>
@@ -10034,13 +10030,13 @@
       </c>
     </row>
     <row r="14" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
       <c r="K14" s="18">
         <v>10</v>
       </c>
@@ -10137,16 +10133,16 @@
       </c>
     </row>
     <row r="21" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="126" t="s">
+      <c r="C21" s="126"/>
+      <c r="D21" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
       <c r="H21" s="9" t="s">
         <v>28</v>
       </c>
@@ -10180,16 +10176,16 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119" t="s">
+      <c r="C22" s="120"/>
+      <c r="D22" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
       <c r="H22" s="75">
         <v>1</v>
       </c>
@@ -10213,16 +10209,16 @@
       <c r="X22" s="78"/>
     </row>
     <row r="23" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120" t="s">
+      <c r="C23" s="119"/>
+      <c r="D23" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
       <c r="H23" s="76">
         <v>2</v>
       </c>
@@ -10307,16 +10303,16 @@
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119" t="s">
+      <c r="C26" s="120"/>
+      <c r="D26" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
       <c r="H26" s="75">
         <v>1</v>
       </c>
@@ -10338,16 +10334,16 @@
       <c r="X26" s="8"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130" t="s">
+      <c r="C27" s="121"/>
+      <c r="D27" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
       <c r="H27" s="41">
         <v>2</v>
       </c>
@@ -10365,16 +10361,16 @@
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B28" s="130" t="s">
+      <c r="B28" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130" t="s">
+      <c r="C28" s="121"/>
+      <c r="D28" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
       <c r="H28" s="41">
         <v>3</v>
       </c>
@@ -10389,12 +10385,12 @@
       </c>
     </row>
     <row r="29" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
       <c r="H29" s="76"/>
       <c r="K29" s="18">
         <v>25</v>
@@ -10889,14 +10885,6 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:M4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -10910,6 +10898,14 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10938,33 +10934,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="K2" s="121" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="T2" s="121" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -12761,33 +12757,33 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="K2" s="121" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="T2" s="121" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
@@ -14537,34 +14533,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
       <c r="I2"/>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="T2" s="121" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>

--- a/EASE/EASE(D)-OneWay-Rattan.xlsx
+++ b/EASE/EASE(D)-OneWay-Rattan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/EASE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="114_{1189771A-698D-425C-A5E8-1F7302760335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{074B2776-2B89-4C7F-A9B4-89854D2F50DC}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="114_{1189771A-698D-425C-A5E8-1F7302760335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEFD02EE-7AA1-42A0-95AD-D899F7DF7BAF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="31" r:id="rId1"/>
@@ -1186,15 +1186,11 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1224,6 +1220,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3668,7 +3668,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C0890D3-8749-4FF3-A2DE-C14AD7CD969E}" type="CELLRANGE">
+                    <a:fld id="{0E38319A-2B5B-4AD7-962D-50365D820DB1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3701,7 +3701,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F284373-E874-4CFE-AB10-1185AFEA5F9A}" type="CELLRANGE">
+                    <a:fld id="{2E255764-CA1F-43BA-8C20-268A2CD65DD0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3734,7 +3734,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AAB761C-0505-45DA-B36E-9D0A768D59CC}" type="CELLRANGE">
+                    <a:fld id="{229B2BD4-D73F-4C36-9BBA-F0E118108267}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3767,7 +3767,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{985A0E34-556D-4731-BBC7-CE7AAC3C7952}" type="CELLRANGE">
+                    <a:fld id="{D89E453B-EF18-462C-A52F-9E4FAAAB3187}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3800,7 +3800,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86E85CE3-97D8-465A-A733-AA1D79AEE674}" type="CELLRANGE">
+                    <a:fld id="{0DC0A86E-D6E0-412C-862E-5233835D5679}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3833,7 +3833,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06859B73-BD78-41A5-BEB7-BBA95A8D0F59}" type="CELLRANGE">
+                    <a:fld id="{F8C4EF37-2BBE-4445-B0EB-92BA72C57B44}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4495,7 +4495,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0B912B7-E2DA-44FB-86CE-8A978BFD17E8}" type="CELLRANGE">
+                    <a:fld id="{3C55DD3A-1A9C-4830-B024-236B6EE8A5C8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4541,7 +4541,7 @@
                         </a:solidFill>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{15921A87-FE78-427A-AF35-5CD7390A2FA8}" type="CELLRANGE">
+                    <a:fld id="{0E4D0D72-D473-422D-96C0-E7EEA5782837}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1">
@@ -4591,7 +4591,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8E659CF-172D-41ED-B14C-7E2C476724CF}" type="CELLRANGE">
+                    <a:fld id="{BB1F5B51-C805-46BA-85C8-B9545514AE9E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5050,7 +5050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9CC1C910-5591-440B-BFA1-2A86281148AF}" type="CELLRANGE">
+                    <a:fld id="{4C0E8EA0-7820-47B8-8B5F-F00C61D63A15}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5083,7 +5083,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71CF4C88-F812-4A22-80EB-894C3453537D}" type="CELLRANGE">
+                    <a:fld id="{90A7C33F-C83B-475E-9271-F6918978DBD7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5116,7 +5116,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B98FD284-C54A-41C5-8A17-6185894D09C9}" type="CELLRANGE">
+                    <a:fld id="{7BF3E1C1-1A1D-4AC4-9338-07D5410D7D61}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5149,7 +5149,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ABA5830F-1F77-49FE-8086-1A11D5F4B195}" type="CELLRANGE">
+                    <a:fld id="{F0B749CA-5536-420D-ADD5-9DAEDDFDFED0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5182,7 +5182,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{313264EC-C4B5-4164-8ACE-1665B7CEB747}" type="CELLRANGE">
+                    <a:fld id="{A188746B-9BA8-49B2-94B9-4A132393C5F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5215,7 +5215,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0FE0B439-48D3-470E-BC8E-23512FA2926C}" type="CELLRANGE">
+                    <a:fld id="{21627F3B-5DD9-40AA-BE35-5AAB23A7222D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5248,7 +5248,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{628F0BC2-9CB8-4A70-962F-42381447881E}" type="CELLRANGE">
+                    <a:fld id="{FD8CD0C9-8A91-471A-912D-61C9B720544D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5903,7 +5903,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3BA205A-513E-4F2D-B3EB-FA414A1828F7}" type="CELLRANGE">
+                    <a:fld id="{AEBBF2B6-F456-4876-ADFE-D79EE63B01E3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5942,7 +5942,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{A0FE1032-71A0-4EDD-8CA6-7555D2EE5BA4}" type="CELLRANGE">
+                    <a:fld id="{552DAB63-019C-4670-848E-A7A47A8C37C7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5985,7 +5985,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC12928B-D98A-4792-9F9A-8C405D3D3FA3}" type="CELLRANGE">
+                    <a:fld id="{6B8BE36C-6304-4DC7-9018-4B208A179AEA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8946,9 +8946,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8986,9 +8986,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9021,26 +9021,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9073,26 +9056,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9271,7 +9237,7 @@
   </sheetPr>
   <dimension ref="B2:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -9599,7 +9565,7 @@
       <c r="Q33"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="K2:Q2"/>
@@ -9649,31 +9615,31 @@
       <c r="M1"/>
     </row>
     <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="K2" s="122" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="K2" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
       <c r="N2" s="91"/>
       <c r="O2" s="91"/>
-      <c r="R2" s="122" t="s">
+      <c r="R2" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
     </row>
     <row r="3" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E3" s="1"/>
@@ -9713,15 +9679,15 @@
       </c>
     </row>
     <row r="6" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
       <c r="K6" s="18">
         <v>2</v>
       </c>
@@ -9754,15 +9720,15 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
       <c r="K7" s="18">
         <v>3</v>
       </c>
@@ -9801,13 +9767,13 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
       <c r="K8" s="18">
         <v>4</v>
       </c>
@@ -9891,15 +9857,15 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
       <c r="K10" s="18">
         <v>6</v>
       </c>
@@ -9938,15 +9904,15 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
       <c r="K11" s="18">
         <v>7</v>
       </c>
@@ -9984,13 +9950,13 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
       <c r="K12" s="18">
         <v>8</v>
       </c>
@@ -10009,13 +9975,13 @@
       <c r="X12" s="8"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
       <c r="K13" s="18">
         <v>9</v>
       </c>
@@ -10030,13 +9996,13 @@
       </c>
     </row>
     <row r="14" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
       <c r="K14" s="18">
         <v>10</v>
       </c>
@@ -10133,16 +10099,16 @@
       </c>
     </row>
     <row r="21" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="127" t="s">
+      <c r="C21" s="125"/>
+      <c r="D21" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
       <c r="H21" s="9" t="s">
         <v>28</v>
       </c>
@@ -10176,16 +10142,16 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120" t="s">
+      <c r="C22" s="119"/>
+      <c r="D22" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
       <c r="H22" s="75">
         <v>1</v>
       </c>
@@ -10209,16 +10175,16 @@
       <c r="X22" s="78"/>
     </row>
     <row r="23" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119" t="s">
+      <c r="C23" s="120"/>
+      <c r="D23" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
       <c r="H23" s="76">
         <v>2</v>
       </c>
@@ -10303,16 +10269,16 @@
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="119" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120" t="s">
+      <c r="C26" s="119"/>
+      <c r="D26" s="119" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
       <c r="H26" s="75">
         <v>1</v>
       </c>
@@ -10334,16 +10300,16 @@
       <c r="X26" s="8"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121" t="s">
+      <c r="C27" s="130"/>
+      <c r="D27" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
       <c r="H27" s="41">
         <v>2</v>
       </c>
@@ -10361,16 +10327,16 @@
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B28" s="121" t="s">
+      <c r="B28" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121" t="s">
+      <c r="C28" s="130"/>
+      <c r="D28" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
       <c r="H28" s="41">
         <v>3</v>
       </c>
@@ -10385,12 +10351,12 @@
       </c>
     </row>
     <row r="29" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
       <c r="H29" s="76"/>
       <c r="K29" s="18">
         <v>25</v>
@@ -10885,6 +10851,14 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:M4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -10898,14 +10872,6 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10934,33 +10900,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="K2" s="122" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="K2" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="T2" s="122" t="s">
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="T2" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -12757,33 +12723,33 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="K2" s="122" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="K2" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="T2" s="122" t="s">
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="T2" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
@@ -14533,34 +14499,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
       <c r="I2"/>
-      <c r="K2" s="122" t="s">
+      <c r="K2" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="T2" s="122" t="s">
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="T2" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>

--- a/EASE/EASE(D)-OneWay-Rattan.xlsx
+++ b/EASE/EASE(D)-OneWay-Rattan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="114_{1189771A-698D-425C-A5E8-1F7302760335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEFD02EE-7AA1-42A0-95AD-D899F7DF7BAF}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="114_{1189771A-698D-425C-A5E8-1F7302760335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D0B0DCC-FDC2-4BAF-9B6D-31DB07B3E3E0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,19 +465,19 @@
     <t>cwendorf@uwsp.edu</t>
   </si>
   <si>
-    <t>https://cwendorf.github.io/BASE/EASE</t>
-  </si>
-  <si>
     <t>http://cwendorf.github.io</t>
-  </si>
-  <si>
-    <t>Version: 2.210601</t>
   </si>
   <si>
     <t>Wendorf, C. A. (2021).</t>
   </si>
   <si>
     <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
+  </si>
+  <si>
+    <t>https://github.com/cwendorf/BASE/tree/main/EASE</t>
+  </si>
+  <si>
+    <t>Version: 2.241027</t>
   </si>
 </sst>
 </file>
@@ -3668,7 +3668,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E38319A-2B5B-4AD7-962D-50365D820DB1}" type="CELLRANGE">
+                    <a:fld id="{FFEDF291-E4FA-4D1C-BF56-A37E0882D7CB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3701,7 +3701,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E255764-CA1F-43BA-8C20-268A2CD65DD0}" type="CELLRANGE">
+                    <a:fld id="{A7C68B3F-9DAE-4B0B-AF39-4A8AD257AFAA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3734,7 +3734,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{229B2BD4-D73F-4C36-9BBA-F0E118108267}" type="CELLRANGE">
+                    <a:fld id="{18525C84-EF90-44A7-A266-2FCA52E8712B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3767,7 +3767,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D89E453B-EF18-462C-A52F-9E4FAAAB3187}" type="CELLRANGE">
+                    <a:fld id="{B378CF30-0527-4306-AA4E-EFDFD56A178D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3800,7 +3800,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DC0A86E-D6E0-412C-862E-5233835D5679}" type="CELLRANGE">
+                    <a:fld id="{ED99F5E8-E318-4F47-A234-B0F4F3DA1B84}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3833,7 +3833,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8C4EF37-2BBE-4445-B0EB-92BA72C57B44}" type="CELLRANGE">
+                    <a:fld id="{D5214609-A3B2-481C-B4F9-FF484AD3BCE3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4495,7 +4495,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C55DD3A-1A9C-4830-B024-236B6EE8A5C8}" type="CELLRANGE">
+                    <a:fld id="{F8603475-E269-4A03-9939-8751B037D0F4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4541,7 +4541,7 @@
                         </a:solidFill>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{0E4D0D72-D473-422D-96C0-E7EEA5782837}" type="CELLRANGE">
+                    <a:fld id="{D7171D02-D29B-4C5E-9BCE-9C1A317C5150}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1">
@@ -4591,7 +4591,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB1F5B51-C805-46BA-85C8-B9545514AE9E}" type="CELLRANGE">
+                    <a:fld id="{2F9FB498-CDFC-47E3-9894-55DA7D77F122}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5050,7 +5050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C0E8EA0-7820-47B8-8B5F-F00C61D63A15}" type="CELLRANGE">
+                    <a:fld id="{A96DFBA9-FB94-4FA1-80DE-E258306CA7E4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5083,7 +5083,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90A7C33F-C83B-475E-9271-F6918978DBD7}" type="CELLRANGE">
+                    <a:fld id="{8BC1EA21-FE4F-450B-8A0C-7251F70A7F74}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5116,7 +5116,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BF3E1C1-1A1D-4AC4-9338-07D5410D7D61}" type="CELLRANGE">
+                    <a:fld id="{A47A2AA7-0A2C-4921-8C80-11F38528E481}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5149,7 +5149,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0B749CA-5536-420D-ADD5-9DAEDDFDFED0}" type="CELLRANGE">
+                    <a:fld id="{3018BCBE-CC00-4B99-99CD-500A79ED73D3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5182,7 +5182,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A188746B-9BA8-49B2-94B9-4A132393C5F8}" type="CELLRANGE">
+                    <a:fld id="{1E406099-E4EF-4D5F-91C7-599CD2059386}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5215,7 +5215,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21627F3B-5DD9-40AA-BE35-5AAB23A7222D}" type="CELLRANGE">
+                    <a:fld id="{E2B853A7-B0AA-4EB3-8636-8EDA750DF5F5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5248,7 +5248,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD8CD0C9-8A91-471A-912D-61C9B720544D}" type="CELLRANGE">
+                    <a:fld id="{38275AAD-EDE4-4494-A0FD-ED037EA35A3F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5903,7 +5903,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AEBBF2B6-F456-4876-ADFE-D79EE63B01E3}" type="CELLRANGE">
+                    <a:fld id="{AE095511-C265-4EBE-9C5B-79929A67ECD8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5942,7 +5942,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{552DAB63-019C-4670-848E-A7A47A8C37C7}" type="CELLRANGE">
+                    <a:fld id="{9AF8381D-2518-43F6-A831-3A5AD5AD90BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5985,7 +5985,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B8BE36C-6304-4DC7-9018-4B208A179AEA}" type="CELLRANGE">
+                    <a:fld id="{AC479F4D-64B7-4586-82CF-998D9FBCF692}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8945,6 +8945,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -9238,7 +9242,7 @@
   <dimension ref="B2:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9286,7 +9290,7 @@
       <c r="I3" s="94"/>
       <c r="J3" s="94"/>
       <c r="K3" s="117" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L3" s="117"/>
       <c r="M3" s="117"/>
@@ -9306,7 +9310,7 @@
       <c r="G4" s="117"/>
       <c r="H4" s="117"/>
       <c r="K4" s="118" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L4" s="117"/>
       <c r="M4" s="117"/>
@@ -9475,7 +9479,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="114" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -9519,7 +9523,7 @@
         <v>97</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -9533,7 +9537,7 @@
         <v>98</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9547,7 +9551,7 @@
         <v>99</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9576,8 +9580,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K25" r:id="rId3" xr:uid="{A73D6330-88C6-48CA-AE84-A1C0A8CC8449}"/>
+    <hyperlink ref="K25" r:id="rId2" xr:uid="{A73D6330-88C6-48CA-AE84-A1C0A8CC8449}"/>
+    <hyperlink ref="K4" r:id="rId3" display="https://cwendorf.github.io/BASE/EASE" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/EASE/EASE(D)-OneWay-Rattan.xlsx
+++ b/EASE/EASE(D)-OneWay-Rattan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="114_{1189771A-698D-425C-A5E8-1F7302760335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D0B0DCC-FDC2-4BAF-9B6D-31DB07B3E3E0}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="114_{1189771A-698D-425C-A5E8-1F7302760335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0CACED8-B681-4391-B9A5-40F7B44A2DCE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,9 +468,6 @@
     <t>http://cwendorf.github.io</t>
   </si>
   <si>
-    <t>Wendorf, C. A. (2021).</t>
-  </si>
-  <si>
     <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
   </si>
   <si>
@@ -478,6 +475,9 @@
   </si>
   <si>
     <t>Version: 2.241027</t>
+  </si>
+  <si>
+    <t>Wendorf, C. A. (2021).</t>
   </si>
 </sst>
 </file>
@@ -1186,11 +1186,15 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1220,10 +1224,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3668,7 +3668,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FFEDF291-E4FA-4D1C-BF56-A37E0882D7CB}" type="CELLRANGE">
+                    <a:fld id="{E4AA5415-5310-42D5-BC64-46A09CFAE474}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3701,7 +3701,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7C68B3F-9DAE-4B0B-AF39-4A8AD257AFAA}" type="CELLRANGE">
+                    <a:fld id="{9791EBBF-C4FE-445F-99BB-505C732EB533}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3734,7 +3734,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18525C84-EF90-44A7-A266-2FCA52E8712B}" type="CELLRANGE">
+                    <a:fld id="{89B85D8F-693D-480A-97D5-F7B937B183D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3767,7 +3767,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B378CF30-0527-4306-AA4E-EFDFD56A178D}" type="CELLRANGE">
+                    <a:fld id="{E8345365-C1ED-4004-980E-A6D9568F1C3A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3800,7 +3800,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED99F5E8-E318-4F47-A234-B0F4F3DA1B84}" type="CELLRANGE">
+                    <a:fld id="{710B741F-BFF5-4E4E-925A-C4EA568C49A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3833,7 +3833,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5214609-A3B2-481C-B4F9-FF484AD3BCE3}" type="CELLRANGE">
+                    <a:fld id="{5E0E56CA-59EA-43C4-A629-6C73074F2938}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4495,7 +4495,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8603475-E269-4A03-9939-8751B037D0F4}" type="CELLRANGE">
+                    <a:fld id="{148696E5-8440-4775-B98B-91FFBA4EF564}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4541,7 +4541,7 @@
                         </a:solidFill>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{D7171D02-D29B-4C5E-9BCE-9C1A317C5150}" type="CELLRANGE">
+                    <a:fld id="{B576A711-849B-478A-9755-7514C790BD31}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1">
@@ -4591,7 +4591,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F9FB498-CDFC-47E3-9894-55DA7D77F122}" type="CELLRANGE">
+                    <a:fld id="{4F19932E-D929-4019-B394-925D4AA701B1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5050,7 +5050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A96DFBA9-FB94-4FA1-80DE-E258306CA7E4}" type="CELLRANGE">
+                    <a:fld id="{3D6052D2-E643-4C06-9387-EC7FDF635015}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5083,7 +5083,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8BC1EA21-FE4F-450B-8A0C-7251F70A7F74}" type="CELLRANGE">
+                    <a:fld id="{FAB2EFE6-0317-4365-8C8D-4BD23ECF9580}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5116,7 +5116,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A47A2AA7-0A2C-4921-8C80-11F38528E481}" type="CELLRANGE">
+                    <a:fld id="{B1338291-D064-409D-A2E0-7450B8D26770}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5149,7 +5149,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3018BCBE-CC00-4B99-99CD-500A79ED73D3}" type="CELLRANGE">
+                    <a:fld id="{F1FC246E-CF1F-4879-8631-16406D2EB679}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5182,7 +5182,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E406099-E4EF-4D5F-91C7-599CD2059386}" type="CELLRANGE">
+                    <a:fld id="{FC9E0FA4-2277-40CD-ACF6-EF36063BE582}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5215,7 +5215,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2B853A7-B0AA-4EB3-8636-8EDA750DF5F5}" type="CELLRANGE">
+                    <a:fld id="{231CB463-C137-43CE-943C-A594BE3FEA3F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5248,7 +5248,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38275AAD-EDE4-4494-A0FD-ED037EA35A3F}" type="CELLRANGE">
+                    <a:fld id="{D8A36DDE-44EC-4FB6-96C8-A20D0239C7B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5903,7 +5903,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE095511-C265-4EBE-9C5B-79929A67ECD8}" type="CELLRANGE">
+                    <a:fld id="{73829550-11DB-4576-8EC4-4335A54775DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5942,7 +5942,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{9AF8381D-2518-43F6-A831-3A5AD5AD90BA}" type="CELLRANGE">
+                    <a:fld id="{EB2CB9C6-F7F8-4EF5-9635-3EB1BD10EAF5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5985,7 +5985,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC479F4D-64B7-4586-82CF-998D9FBCF692}" type="CELLRANGE">
+                    <a:fld id="{1B6E21D0-EC84-4BC8-9AEE-100BAD1AEBBC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8945,10 +8945,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -9290,7 +9286,7 @@
       <c r="I3" s="94"/>
       <c r="J3" s="94"/>
       <c r="K3" s="117" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L3" s="117"/>
       <c r="M3" s="117"/>
@@ -9310,7 +9306,7 @@
       <c r="G4" s="117"/>
       <c r="H4" s="117"/>
       <c r="K4" s="118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L4" s="117"/>
       <c r="M4" s="117"/>
@@ -9523,7 +9519,7 @@
         <v>97</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -9537,7 +9533,7 @@
         <v>98</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9551,7 +9547,7 @@
         <v>99</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9619,31 +9615,31 @@
       <c r="M1"/>
     </row>
     <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="K2" s="121" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
       <c r="N2" s="91"/>
       <c r="O2" s="91"/>
-      <c r="R2" s="121" t="s">
+      <c r="R2" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
     </row>
     <row r="3" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E3" s="1"/>
@@ -9683,15 +9679,15 @@
       </c>
     </row>
     <row r="6" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
       <c r="K6" s="18">
         <v>2</v>
       </c>
@@ -9724,15 +9720,15 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
       <c r="K7" s="18">
         <v>3</v>
       </c>
@@ -9771,13 +9767,13 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
       <c r="K8" s="18">
         <v>4</v>
       </c>
@@ -9861,15 +9857,15 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
       <c r="K10" s="18">
         <v>6</v>
       </c>
@@ -9908,15 +9904,15 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
       <c r="K11" s="18">
         <v>7</v>
       </c>
@@ -9954,13 +9950,13 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
       <c r="K12" s="18">
         <v>8</v>
       </c>
@@ -9979,13 +9975,13 @@
       <c r="X12" s="8"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
       <c r="K13" s="18">
         <v>9</v>
       </c>
@@ -10000,13 +9996,13 @@
       </c>
     </row>
     <row r="14" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
       <c r="K14" s="18">
         <v>10</v>
       </c>
@@ -10103,16 +10099,16 @@
       </c>
     </row>
     <row r="21" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="126" t="s">
+      <c r="C21" s="126"/>
+      <c r="D21" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
       <c r="H21" s="9" t="s">
         <v>28</v>
       </c>
@@ -10146,16 +10142,16 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119" t="s">
+      <c r="C22" s="120"/>
+      <c r="D22" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
       <c r="H22" s="75">
         <v>1</v>
       </c>
@@ -10179,16 +10175,16 @@
       <c r="X22" s="78"/>
     </row>
     <row r="23" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120" t="s">
+      <c r="C23" s="119"/>
+      <c r="D23" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
       <c r="H23" s="76">
         <v>2</v>
       </c>
@@ -10273,16 +10269,16 @@
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119" t="s">
+      <c r="C26" s="120"/>
+      <c r="D26" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
       <c r="H26" s="75">
         <v>1</v>
       </c>
@@ -10304,16 +10300,16 @@
       <c r="X26" s="8"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130" t="s">
+      <c r="C27" s="121"/>
+      <c r="D27" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
       <c r="H27" s="41">
         <v>2</v>
       </c>
@@ -10331,16 +10327,16 @@
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B28" s="130" t="s">
+      <c r="B28" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130" t="s">
+      <c r="C28" s="121"/>
+      <c r="D28" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
       <c r="H28" s="41">
         <v>3</v>
       </c>
@@ -10355,12 +10351,12 @@
       </c>
     </row>
     <row r="29" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
       <c r="H29" s="76"/>
       <c r="K29" s="18">
         <v>25</v>
@@ -10855,14 +10851,6 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:M4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -10876,6 +10864,14 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10904,33 +10900,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="K2" s="121" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="T2" s="121" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -12727,33 +12723,33 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="K2" s="121" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="T2" s="121" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
@@ -14503,34 +14499,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
       <c r="I2"/>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="T2" s="121" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>
